--- a/data_raw/remit_migr/remittance_inflows_april_2020.xlsx
+++ b/data_raw/remit_migr/remittance_inflows_april_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB170419\Documents\Backup EJ\Remittances\Migration and Development Brief April 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/OneDrive - Universidad de los Andes/Projects/IEMJ-SI/Diaspora-EE-NIS/data_raw/remit_migr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF502A54-B8F7-4E1B-A20D-AA78E9EEE820}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF502A54-B8F7-4E1B-A20D-AA78E9EEE820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{07D4ACC3-C1BE-4A32-8DB6-CB353B2BE6E3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="13140" xr2:uid="{07D4ACC3-C1BE-4A32-8DB6-CB353B2BE6E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Remittance inflows" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -773,24 +775,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="16">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="General_)"/>
-    <numFmt numFmtId="170" formatCode="#\,##0."/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#."/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0\ _F_t_-;\-* #,##0\ _F_t_-;_-* &quot;-&quot;\ _F_t_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="#.00"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;\ &quot;Ft&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.000"/>
+    <numFmt numFmtId="171" formatCode="General_)"/>
+    <numFmt numFmtId="172" formatCode="#\,##0."/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#."/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0\ _F_t_-;\-* #,##0\ _F_t_-;_-* &quot;-&quot;\ _F_t_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#.00"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;\ &quot;Ft&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="111" x14ac:knownFonts="1">
+  <fonts count="111">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2348,7 +2350,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="930">
+  <cellStyleXfs count="929">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
@@ -2668,7 +2670,7 @@
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="51" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -2892,82 +2894,82 @@
     <xf numFmtId="0" fontId="31" fillId="74" borderId="14">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="42" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="42" fillId="0" borderId="0">
+    <xf numFmtId="169" fontId="42" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="42" fillId="0" borderId="0">
+    <xf numFmtId="170" fontId="42" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="42" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="42" fillId="0" borderId="0">
+    <xf numFmtId="169" fontId="42" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="43" fillId="0" borderId="0">
+    <xf numFmtId="172" fontId="43" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="43" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="43" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="21"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="21"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2980,9 +2982,9 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="43" fillId="0" borderId="0">
+    <xf numFmtId="174" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="43" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3120,7 +3122,6 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="62" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="62" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3346,8 +3347,8 @@
     <xf numFmtId="0" fontId="70" fillId="51" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="70" fillId="51" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="70" fillId="51" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3411,7 +3412,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3476,16 +3477,16 @@
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="30" xfId="736" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="30" xfId="735" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="30" xfId="736" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="30" xfId="735" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="411" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="411" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="30" xfId="411" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="30" xfId="411" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3495,11 +3496,11 @@
     <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="411" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="736" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="735" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="736" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="735" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3509,7 +3510,7 @@
     <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="556" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="108" fillId="0" borderId="0" xfId="736" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="108" fillId="0" borderId="0" xfId="735" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="556" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -3519,15 +3520,15 @@
     <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="79" fillId="0" borderId="0" xfId="736" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="79" fillId="0" borderId="0" xfId="735" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="736" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="735" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3539,7 +3540,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3547,7 +3548,7 @@
     </xf>
     <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="930">
+  <cellStyles count="929">
     <cellStyle name="_x000d__x000a_JournalTemplate=C:\COMFO\CTALK\JOURSTD.TPL_x000d__x000a_LbStateAddress=3 3 0 251 1 89 2 311_x000d__x000a_LbStateJou" xfId="2" xr:uid="{DD5CBABA-7919-4A86-8E5A-57B5C85C1D97}"/>
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{B1419DD0-3C10-4723-B81F-9196A180F38E}"/>
     <cellStyle name="20% - Accent1 2 2" xfId="5" xr:uid="{0A2685E8-847B-44A6-93C2-54AF4E7A9830}"/>
@@ -4077,28 +4078,28 @@
     <cellStyle name="Heading 2 7" xfId="529" xr:uid="{790BCE09-1048-4A8B-998D-3657F7332579}"/>
     <cellStyle name="Heading 2 8" xfId="530" xr:uid="{3F2DA354-10B9-4203-A978-1E3D21BA968F}"/>
     <cellStyle name="Heading 2 9" xfId="518" xr:uid="{B38209F0-F39E-4190-BB28-2763F382CE84}"/>
-    <cellStyle name="Heading 3 10" xfId="920" xr:uid="{D3BCE974-3DA8-4E6D-8D2D-8166016963FE}"/>
+    <cellStyle name="Heading 3 10" xfId="919" xr:uid="{D3BCE974-3DA8-4E6D-8D2D-8166016963FE}"/>
     <cellStyle name="Heading 3 2" xfId="532" xr:uid="{72FB7577-39AB-4545-AE5F-008F45BFED2E}"/>
     <cellStyle name="Heading 3 2 2" xfId="533" xr:uid="{7CFF54B8-1744-4A76-80EC-62F2C8FAD61E}"/>
-    <cellStyle name="Heading 3 2 2 2" xfId="922" xr:uid="{1A966549-BB18-4BE9-9474-43D9534A2FDA}"/>
+    <cellStyle name="Heading 3 2 2 2" xfId="921" xr:uid="{1A966549-BB18-4BE9-9474-43D9534A2FDA}"/>
     <cellStyle name="Heading 3 2 3" xfId="534" xr:uid="{36997D0F-F885-44E6-8CAB-5AB0968CAB11}"/>
-    <cellStyle name="Heading 3 2 3 2" xfId="923" xr:uid="{5D4AA802-360C-4E75-BDDB-B7DC7ECDC6C8}"/>
+    <cellStyle name="Heading 3 2 3 2" xfId="922" xr:uid="{5D4AA802-360C-4E75-BDDB-B7DC7ECDC6C8}"/>
     <cellStyle name="Heading 3 2 4" xfId="535" xr:uid="{19F04AB9-C15E-427B-9513-B707D4056141}"/>
-    <cellStyle name="Heading 3 2 5" xfId="921" xr:uid="{FADB3F49-F68B-4948-9ACF-A6C302066A94}"/>
+    <cellStyle name="Heading 3 2 5" xfId="920" xr:uid="{FADB3F49-F68B-4948-9ACF-A6C302066A94}"/>
     <cellStyle name="Heading 3 2_10-WRD_charts_v1" xfId="536" xr:uid="{7035CB40-3B6F-477B-9B9C-D2BF8D8B0A06}"/>
     <cellStyle name="Heading 3 3" xfId="537" xr:uid="{E4A25FEE-37BB-4783-94FE-44FC6BBC093F}"/>
     <cellStyle name="Heading 3 3 2" xfId="538" xr:uid="{718FE5AC-9C68-4767-9BFA-1DBC2AD332B0}"/>
-    <cellStyle name="Heading 3 3 3" xfId="924" xr:uid="{D89BE25C-BF88-4468-A20E-F28709616311}"/>
+    <cellStyle name="Heading 3 3 3" xfId="923" xr:uid="{D89BE25C-BF88-4468-A20E-F28709616311}"/>
     <cellStyle name="Heading 3 4" xfId="539" xr:uid="{AE3182E0-E6A3-4C6A-AFF6-86E85EA7A76C}"/>
-    <cellStyle name="Heading 3 4 2" xfId="925" xr:uid="{CD8C3809-C04B-46F5-9F5F-380922BD59BC}"/>
+    <cellStyle name="Heading 3 4 2" xfId="924" xr:uid="{CD8C3809-C04B-46F5-9F5F-380922BD59BC}"/>
     <cellStyle name="Heading 3 5" xfId="540" xr:uid="{C5872BC9-F47A-4CD0-BE3F-EFE67CF3FC8B}"/>
-    <cellStyle name="Heading 3 5 2" xfId="926" xr:uid="{F7AB8748-B99C-4C27-A9CD-B19FB0F02A8A}"/>
+    <cellStyle name="Heading 3 5 2" xfId="925" xr:uid="{F7AB8748-B99C-4C27-A9CD-B19FB0F02A8A}"/>
     <cellStyle name="Heading 3 6" xfId="541" xr:uid="{89F167D1-375F-4977-9F32-66146FB95F1D}"/>
-    <cellStyle name="Heading 3 6 2" xfId="927" xr:uid="{5C7987CE-71AB-4815-B229-C00E14478C50}"/>
+    <cellStyle name="Heading 3 6 2" xfId="926" xr:uid="{5C7987CE-71AB-4815-B229-C00E14478C50}"/>
     <cellStyle name="Heading 3 7" xfId="542" xr:uid="{978B0569-F8E4-48FA-8414-6116808466E3}"/>
-    <cellStyle name="Heading 3 7 2" xfId="928" xr:uid="{52977926-75BB-43F1-9B2E-430B833083AF}"/>
+    <cellStyle name="Heading 3 7 2" xfId="927" xr:uid="{52977926-75BB-43F1-9B2E-430B833083AF}"/>
     <cellStyle name="Heading 3 8" xfId="543" xr:uid="{DDCEB808-3675-49BC-B295-B7E5FD2988DD}"/>
-    <cellStyle name="Heading 3 8 2" xfId="929" xr:uid="{ABBC51C7-ABCC-46BE-AF88-6D1F054BD0A9}"/>
+    <cellStyle name="Heading 3 8 2" xfId="928" xr:uid="{ABBC51C7-ABCC-46BE-AF88-6D1F054BD0A9}"/>
     <cellStyle name="Heading 3 9" xfId="531" xr:uid="{74A99444-B6D0-423F-B610-9BF0BB2DA2D2}"/>
     <cellStyle name="Heading 4 2" xfId="545" xr:uid="{6C63ED10-DEF8-4D2C-89C1-058B72EFD530}"/>
     <cellStyle name="Heading 4 2 2" xfId="546" xr:uid="{625EB01B-F904-4248-A61F-455688C27D18}"/>
@@ -4112,7 +4113,7 @@
     <cellStyle name="Heading 4 7" xfId="554" xr:uid="{2402C6B7-8155-44A5-8CB3-CF643A0402C0}"/>
     <cellStyle name="Heading 4 8" xfId="555" xr:uid="{4DA4B0B0-3685-46EA-B240-E58A2DE5288A}"/>
     <cellStyle name="Heading 4 9" xfId="544" xr:uid="{C44064AF-3462-469C-831D-81CE347DAE44}"/>
-    <cellStyle name="Hyperlink" xfId="556" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="556" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="557" xr:uid="{D1F529D4-6FE1-42D6-A3CF-6E3A965F8E4F}"/>
     <cellStyle name="Hyperlink 2 2" xfId="558" xr:uid="{4349AA63-EC51-43EB-8781-7C8519C686D3}"/>
     <cellStyle name="Hyperlink 3" xfId="559" xr:uid="{22A306FB-4841-432D-8C80-2DE55557A469}"/>
@@ -4148,336 +4149,335 @@
     <cellStyle name="Linked Cell 7" xfId="590" xr:uid="{1E636CF9-7693-436D-9E9E-F56010FA0B0D}"/>
     <cellStyle name="Linked Cell 8" xfId="591" xr:uid="{99FA91EE-C0A1-4270-9BF1-08DE4C5BD632}"/>
     <cellStyle name="Linked Cell 9" xfId="579" xr:uid="{AD5CE256-DF13-4585-A4F6-AC3B664F8348}"/>
-    <cellStyle name="Millares_Hoja1" xfId="592" xr:uid="{815B19A0-3FE9-4A53-8D78-227BF84560A5}"/>
-    <cellStyle name="Neutral 2" xfId="594" xr:uid="{F37B8DF8-A1A8-4573-9F16-FBD08F974109}"/>
-    <cellStyle name="Neutral 2 2" xfId="595" xr:uid="{4BC15241-521E-45DA-B1A0-4E55505CFDF0}"/>
-    <cellStyle name="Neutral 2 3" xfId="596" xr:uid="{F2398B69-508B-4BEC-B282-F660050FAEB3}"/>
-    <cellStyle name="Neutral 2 4" xfId="597" xr:uid="{9F63B730-19B0-43A1-90BF-778B4256F0EA}"/>
-    <cellStyle name="Neutral 3" xfId="598" xr:uid="{70F37730-8495-441A-85FB-06AED4B413DB}"/>
-    <cellStyle name="Neutral 3 2" xfId="599" xr:uid="{90401738-A8DC-426F-81DB-2EE3D269438E}"/>
-    <cellStyle name="Neutral 4" xfId="600" xr:uid="{55A15DFB-05A2-44D6-81D8-5B79EDCFB09E}"/>
-    <cellStyle name="Neutral 5" xfId="601" xr:uid="{1ADF444B-D0CB-4AB4-8B6C-85D0D957C0FB}"/>
-    <cellStyle name="Neutral 6" xfId="602" xr:uid="{A45F0145-582D-4458-A871-07A15CB1B5C0}"/>
-    <cellStyle name="Neutral 7" xfId="603" xr:uid="{96A1174A-1117-4A72-91CA-1F0351F5ECAA}"/>
-    <cellStyle name="Neutral 8" xfId="604" xr:uid="{2F63988E-9520-457F-9100-F730448C86E6}"/>
-    <cellStyle name="Neutral 9" xfId="593" xr:uid="{D40EC0DF-5354-45AF-8F97-5EE81F41A9F9}"/>
+    <cellStyle name="Neutral 2" xfId="593" xr:uid="{F37B8DF8-A1A8-4573-9F16-FBD08F974109}"/>
+    <cellStyle name="Neutral 2 2" xfId="594" xr:uid="{4BC15241-521E-45DA-B1A0-4E55505CFDF0}"/>
+    <cellStyle name="Neutral 2 3" xfId="595" xr:uid="{F2398B69-508B-4BEC-B282-F660050FAEB3}"/>
+    <cellStyle name="Neutral 2 4" xfId="596" xr:uid="{9F63B730-19B0-43A1-90BF-778B4256F0EA}"/>
+    <cellStyle name="Neutral 3" xfId="597" xr:uid="{70F37730-8495-441A-85FB-06AED4B413DB}"/>
+    <cellStyle name="Neutral 3 2" xfId="598" xr:uid="{90401738-A8DC-426F-81DB-2EE3D269438E}"/>
+    <cellStyle name="Neutral 4" xfId="599" xr:uid="{55A15DFB-05A2-44D6-81D8-5B79EDCFB09E}"/>
+    <cellStyle name="Neutral 5" xfId="600" xr:uid="{1ADF444B-D0CB-4AB4-8B6C-85D0D957C0FB}"/>
+    <cellStyle name="Neutral 6" xfId="601" xr:uid="{A45F0145-582D-4458-A871-07A15CB1B5C0}"/>
+    <cellStyle name="Neutral 7" xfId="602" xr:uid="{96A1174A-1117-4A72-91CA-1F0351F5ECAA}"/>
+    <cellStyle name="Neutral 8" xfId="603" xr:uid="{2F63988E-9520-457F-9100-F730448C86E6}"/>
+    <cellStyle name="Neutral 9" xfId="592" xr:uid="{D40EC0DF-5354-45AF-8F97-5EE81F41A9F9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="605" xr:uid="{843D937B-BC06-4AF3-B4C2-9EB29A2EFF9E}"/>
-    <cellStyle name="Normal 10 2" xfId="606" xr:uid="{B819A680-80F4-4AA5-AEAC-2ECCD4C55583}"/>
-    <cellStyle name="Normal 10 2 2" xfId="607" xr:uid="{84A74B5C-3839-4158-AC8B-F63C2C9AD18B}"/>
-    <cellStyle name="Normal 10 2 3" xfId="608" xr:uid="{45A7DF22-496B-4201-96CA-78A58E4872F6}"/>
-    <cellStyle name="Normal 10 3" xfId="609" xr:uid="{1F9C5F8F-BF26-474E-B4D2-E56D2B0DE1F6}"/>
-    <cellStyle name="Normal 10 4" xfId="610" xr:uid="{C3006804-1BC4-4990-B49A-542B73415A10}"/>
-    <cellStyle name="Normal 11" xfId="611" xr:uid="{2D4D25AE-C54D-4771-AB0A-DDCA03801FCD}"/>
-    <cellStyle name="Normal 11 2" xfId="612" xr:uid="{F3F9962A-7C74-4C73-A1BE-14B39EB61804}"/>
-    <cellStyle name="Normal 11 3" xfId="613" xr:uid="{1225B8BD-993C-46AB-9CDF-89905E0CE992}"/>
-    <cellStyle name="Normal 12" xfId="614" xr:uid="{6529ECB6-BACB-42E5-AA11-2F0C9355BB3D}"/>
-    <cellStyle name="Normal 12 2" xfId="615" xr:uid="{4550F53E-8F1D-450B-8524-4E8B75A4B827}"/>
-    <cellStyle name="Normal 12 3" xfId="616" xr:uid="{CB7636CA-27C3-4A06-BA74-5B6C9E080A74}"/>
-    <cellStyle name="Normal 13" xfId="617" xr:uid="{36C99341-5966-4859-A17E-8D0A65E7D415}"/>
-    <cellStyle name="Normal 13 2" xfId="618" xr:uid="{B36478F9-655E-45C4-B2BF-B4AD26E00DFC}"/>
-    <cellStyle name="Normal 13 3" xfId="619" xr:uid="{5BBEC1C2-8998-4C4E-81FF-C858AA0E9CBF}"/>
-    <cellStyle name="Normal 14" xfId="620" xr:uid="{0E47600E-03AE-4360-B5F9-A2EE9FBF3E84}"/>
-    <cellStyle name="Normal 14 2" xfId="621" xr:uid="{3EC9F118-6D8F-432E-A1EA-3FB389BEC007}"/>
-    <cellStyle name="Normal 14 3" xfId="622" xr:uid="{255468BF-9A06-45B2-90BD-BB8EAD86BB10}"/>
-    <cellStyle name="Normal 15" xfId="623" xr:uid="{5A63D57E-763E-4F84-B7C3-9676BB7B438F}"/>
-    <cellStyle name="Normal 15 2" xfId="624" xr:uid="{53DEF3DC-74F5-4912-A67D-756E8C5A22DE}"/>
-    <cellStyle name="Normal 15 2 2" xfId="625" xr:uid="{EB635BD4-86C6-45C2-B850-17E929EBCCF8}"/>
-    <cellStyle name="Normal 15 2 3" xfId="626" xr:uid="{275D14FC-5EA1-4114-A823-A208BD9BC38B}"/>
-    <cellStyle name="Normal 15 3" xfId="627" xr:uid="{682AE2EC-4C3E-4A10-A6BA-4C45763E1385}"/>
-    <cellStyle name="Normal 15 4" xfId="628" xr:uid="{63372C75-2040-438B-BCD6-0426318D9913}"/>
-    <cellStyle name="Normal 16" xfId="629" xr:uid="{E6D7C6B7-44DB-4DAA-B585-0752E958D476}"/>
-    <cellStyle name="Normal 16 2" xfId="630" xr:uid="{4DFAE032-110D-4945-ADB4-B2C5F3688751}"/>
-    <cellStyle name="Normal 16 2 2" xfId="631" xr:uid="{6F507E08-0480-410F-B84D-B99D6C74BB73}"/>
-    <cellStyle name="Normal 16 2 3" xfId="632" xr:uid="{B025BB11-1EDE-4B37-8CBF-F0E570F15810}"/>
-    <cellStyle name="Normal 16 3" xfId="633" xr:uid="{1C70F4F1-A4C8-4131-8BC0-7775232A998A}"/>
-    <cellStyle name="Normal 16 4" xfId="634" xr:uid="{23F5BDF5-7E32-4EBB-A500-56A3831EACEB}"/>
-    <cellStyle name="Normal 17" xfId="635" xr:uid="{12C08ED3-1348-4DC3-964A-17A5766232EE}"/>
-    <cellStyle name="Normal 17 2" xfId="636" xr:uid="{5CCF6FDB-215D-4992-9CE6-E4728E5ED39E}"/>
-    <cellStyle name="Normal 17 2 2" xfId="637" xr:uid="{6E54998C-921C-4D80-8CAE-D8ABC5F516EC}"/>
-    <cellStyle name="Normal 17 2 3" xfId="638" xr:uid="{3EC95161-3D42-4A45-969C-CD51D5AECCAF}"/>
-    <cellStyle name="Normal 17 3" xfId="639" xr:uid="{C5513912-1196-407F-AF33-368DB3212384}"/>
-    <cellStyle name="Normal 17 4" xfId="640" xr:uid="{C2B46B8E-F06B-4748-A799-AA538CBA5D30}"/>
-    <cellStyle name="Normal 18" xfId="641" xr:uid="{CC871325-F750-427A-9E6D-03214EEFC787}"/>
-    <cellStyle name="Normal 18 2" xfId="642" xr:uid="{558B57E8-79A7-4F8D-B898-EC64119BDC81}"/>
-    <cellStyle name="Normal 18 3" xfId="643" xr:uid="{5A6CD4A3-3E30-44B5-8F56-98B0768BBCB9}"/>
-    <cellStyle name="Normal 19" xfId="644" xr:uid="{D83244BA-3B98-4E67-BCEE-279589B2824B}"/>
-    <cellStyle name="Normal 19 2" xfId="645" xr:uid="{9E939AD1-8073-4945-977A-88CE9BAA26C1}"/>
-    <cellStyle name="Normal 19 3" xfId="646" xr:uid="{C6EDDA4D-BF73-44DD-A0E3-BBC577186FB8}"/>
-    <cellStyle name="Normal 2" xfId="647" xr:uid="{72DC79D7-1F59-4D44-B07D-C67919B1588A}"/>
-    <cellStyle name="Normal 2 10" xfId="648" xr:uid="{C8C9CD8B-F67A-4E3D-93AE-8B65B1DE8C4E}"/>
-    <cellStyle name="Normal 2 11" xfId="649" xr:uid="{BC3558FC-FC1A-44C4-9C47-DEE031325D26}"/>
-    <cellStyle name="Normal 2 2" xfId="650" xr:uid="{35A8CE6B-4F5A-4924-B7B8-532C974FA068}"/>
-    <cellStyle name="Normal 2 2 2" xfId="651" xr:uid="{FC6383F3-A2F6-41E4-B129-83566329608B}"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="652" xr:uid="{FC7216B1-968C-4262-BD5E-380EDE6FEDD0}"/>
-    <cellStyle name="Normal 2 2 2 2 2" xfId="653" xr:uid="{8C71D4A3-7024-46E5-8871-D735973F9272}"/>
-    <cellStyle name="Normal 2 2 2 2 3" xfId="654" xr:uid="{66C0487D-8BD7-464C-8A01-4EBDFEA60D33}"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="655" xr:uid="{970D2A5F-2C7E-4E85-AEE2-0DFFC1FCC8FE}"/>
-    <cellStyle name="Normal 2 2 2_10-WRD_charts_v1" xfId="656" xr:uid="{AF325BE2-412F-402C-9C99-C6C3AB8EDF5D}"/>
-    <cellStyle name="Normal 2 2 3" xfId="657" xr:uid="{DE85357F-A493-4800-AFF2-59F21B40CB22}"/>
-    <cellStyle name="Normal 2 2 4" xfId="658" xr:uid="{4E389A21-9F01-4A8D-A01C-3E7AD12F3F59}"/>
-    <cellStyle name="Normal 2 2 5" xfId="659" xr:uid="{0A98239A-D31D-4C48-BB40-9403052CEDC2}"/>
-    <cellStyle name="Normal 2 2 6" xfId="660" xr:uid="{24D63B5C-E37F-4BA2-92C2-844A31FB9591}"/>
-    <cellStyle name="Normal 2 2 7" xfId="661" xr:uid="{10674095-9F1B-44DF-8CD2-30915FC40C0B}"/>
-    <cellStyle name="Normal 2 3" xfId="662" xr:uid="{DCB8D9F9-D7ED-43AA-8741-94A39D4B266A}"/>
-    <cellStyle name="Normal 2 3 2" xfId="663" xr:uid="{3615AAC8-7992-4756-BAF8-86462A209EF9}"/>
-    <cellStyle name="Normal 2 3 3" xfId="664" xr:uid="{37A716EB-A072-40A5-A4D7-A79D0BAB79B0}"/>
-    <cellStyle name="Normal 2 4" xfId="665" xr:uid="{1AB9AC74-C75C-4B8E-80B7-7B6F2E576E47}"/>
-    <cellStyle name="Normal 2 4 2" xfId="666" xr:uid="{E2AED48D-E885-4162-A0F3-04972F7BB32E}"/>
-    <cellStyle name="Normal 2 5" xfId="667" xr:uid="{9F1647B4-CF53-4A48-8F00-2F7E91ED51C9}"/>
-    <cellStyle name="Normal 2 5 2" xfId="668" xr:uid="{472CE497-93FB-4755-9605-FFA453C80B4B}"/>
-    <cellStyle name="Normal 2 5 3" xfId="669" xr:uid="{5AE4247B-7266-4908-B6A7-F0E92305623F}"/>
-    <cellStyle name="Normal 2 5_10-WRD_charts_v1" xfId="670" xr:uid="{155B1A50-8564-4B14-B4F8-2BAAA4E1C3F4}"/>
-    <cellStyle name="Normal 2 6" xfId="671" xr:uid="{69A422CE-869F-46FD-90DA-A44B5785BB8F}"/>
-    <cellStyle name="Normal 2 7" xfId="672" xr:uid="{3FB32EE0-307C-42AA-8CFD-B8B99D37EA76}"/>
-    <cellStyle name="Normal 2 8" xfId="673" xr:uid="{B4750F54-070D-4680-B604-DA10A2F3ED97}"/>
-    <cellStyle name="Normal 2 9" xfId="674" xr:uid="{B0FA9C1C-9B55-4DAC-B2D0-341F55977436}"/>
-    <cellStyle name="Normal 20" xfId="675" xr:uid="{3C678123-6CED-4B0E-AACC-3128947E59AC}"/>
-    <cellStyle name="Normal 20 2" xfId="676" xr:uid="{09D7096C-78BA-4EAB-9FAB-9663E08BF271}"/>
-    <cellStyle name="Normal 20 3" xfId="677" xr:uid="{A06B6713-7DD1-4091-AC2F-DD919CC2602E}"/>
-    <cellStyle name="Normal 21" xfId="678" xr:uid="{E893E2E7-A5AF-42F0-A88C-178985AF6580}"/>
-    <cellStyle name="Normal 21 2" xfId="679" xr:uid="{18E296B4-6655-4362-B370-F054AEEF9FF8}"/>
-    <cellStyle name="Normal 21 3" xfId="680" xr:uid="{6EF659E9-F499-4241-8011-C1A9A48045DF}"/>
-    <cellStyle name="Normal 22" xfId="681" xr:uid="{742A0907-20F1-4332-B27B-7058E24F454C}"/>
-    <cellStyle name="Normal 22 2" xfId="682" xr:uid="{D408A327-E664-47C8-A9C6-0DFD01A754D2}"/>
-    <cellStyle name="Normal 22 3" xfId="683" xr:uid="{61B97216-9ED5-4B5E-8AC4-6CDF77BB7CC1}"/>
-    <cellStyle name="Normal 23" xfId="684" xr:uid="{9846D6BF-0BFE-4564-A09A-6C504443DA9C}"/>
-    <cellStyle name="Normal 23 2" xfId="685" xr:uid="{20BE2E39-9EB6-42C7-B487-CF5C6863C1B5}"/>
-    <cellStyle name="Normal 23 3" xfId="686" xr:uid="{3CE9A73F-2549-4EE0-80B2-E216F4BED643}"/>
-    <cellStyle name="Normal 24" xfId="687" xr:uid="{32DEF3AE-617E-4A36-99FF-C141AE3E0016}"/>
-    <cellStyle name="Normal 24 2" xfId="688" xr:uid="{7A10C3FB-9C6B-4545-BBAB-EEEE1237370D}"/>
-    <cellStyle name="Normal 25" xfId="689" xr:uid="{D3F01B0E-3ED9-4E38-8649-E4F71DEFEF8D}"/>
-    <cellStyle name="Normal 25 2" xfId="690" xr:uid="{019E5C24-AA68-43EF-8E25-648439B4DF54}"/>
-    <cellStyle name="Normal 25 3" xfId="691" xr:uid="{4AAC1ABF-C9F9-43C6-B536-0868E89F215C}"/>
-    <cellStyle name="Normal 26" xfId="692" xr:uid="{4CC7FF91-B92D-4A16-A9D7-A234F9F82FBA}"/>
-    <cellStyle name="Normal 26 2" xfId="693" xr:uid="{7F6A80DE-056A-4AB5-8FCC-A6B9ED2A0662}"/>
-    <cellStyle name="Normal 26 3" xfId="694" xr:uid="{80A86B04-C631-4AEE-97F1-471E270EE909}"/>
-    <cellStyle name="Normal 27" xfId="695" xr:uid="{636FEDDD-5332-4CB4-99D3-9C7E8427C22A}"/>
-    <cellStyle name="Normal 27 2" xfId="696" xr:uid="{10981309-0313-4B7C-B82E-FD05CD209C57}"/>
-    <cellStyle name="Normal 27 3" xfId="697" xr:uid="{453F8D33-3FEB-4FFD-8672-99CCF6D55910}"/>
-    <cellStyle name="Normal 28" xfId="698" xr:uid="{94320160-5B60-4593-82CD-CF4463417ED4}"/>
-    <cellStyle name="Normal 28 2" xfId="699" xr:uid="{EE86D961-A737-4FD5-8F8A-5406D1D268D2}"/>
-    <cellStyle name="Normal 28 3" xfId="700" xr:uid="{CB696C5D-A175-441A-B5D6-F94B256CCDC3}"/>
-    <cellStyle name="Normal 29" xfId="701" xr:uid="{370B5867-B42F-40D0-8FB5-7CDCE9959110}"/>
-    <cellStyle name="Normal 29 2" xfId="702" xr:uid="{555B33FD-7115-4ABA-9BDB-564818941C76}"/>
-    <cellStyle name="Normal 29 3" xfId="703" xr:uid="{B7E9804A-FA68-49A5-AA3A-166183C14CB2}"/>
-    <cellStyle name="Normal 3" xfId="704" xr:uid="{F4D93AD1-80DA-431D-8169-F01706331E2E}"/>
-    <cellStyle name="Normal 3 2" xfId="705" xr:uid="{02DC9EFA-B290-4930-A039-BF3070D5FB4D}"/>
-    <cellStyle name="Normal 3 3" xfId="706" xr:uid="{261ABC02-C02C-42EB-AE67-2D3C261164ED}"/>
-    <cellStyle name="Normal 3 4" xfId="707" xr:uid="{ADA58CB4-764E-47CA-8911-28CC2454782F}"/>
-    <cellStyle name="Normal 3 5" xfId="708" xr:uid="{CF018208-2A47-4889-AC84-8643E5F4D481}"/>
-    <cellStyle name="Normal 3 6" xfId="709" xr:uid="{27C0D779-7D0F-4B5E-AE07-D9BB4C784DE5}"/>
-    <cellStyle name="Normal 3 7" xfId="710" xr:uid="{BBA0C3E6-10B9-42FA-90D9-7D00F2A2FCE4}"/>
-    <cellStyle name="Normal 3 8" xfId="711" xr:uid="{D3394164-B80F-4069-8A64-5ACF6CFBB51C}"/>
-    <cellStyle name="Normal 3_10-WRD_charts_v1" xfId="712" xr:uid="{7E1D746A-BBC1-4226-9040-02BBFFFDD127}"/>
-    <cellStyle name="Normal 30" xfId="713" xr:uid="{4410BADD-83B1-4EAF-A431-F4C9532309BB}"/>
-    <cellStyle name="Normal 30 2" xfId="714" xr:uid="{42278FE2-4FCD-4F5F-877B-3874C2D62565}"/>
-    <cellStyle name="Normal 30 3" xfId="715" xr:uid="{B4EF92FE-8E0B-4FD4-9C54-4EBD45823CF3}"/>
-    <cellStyle name="Normal 31" xfId="716" xr:uid="{0573AE3E-ACC0-4236-BDF5-BF3CD7B9AF5E}"/>
-    <cellStyle name="Normal 31 2" xfId="717" xr:uid="{CB3C5C41-7ED6-408E-83C4-F07A0D980692}"/>
-    <cellStyle name="Normal 31 3" xfId="718" xr:uid="{94C910C7-C677-4787-861B-C9C0B1AB64CF}"/>
-    <cellStyle name="Normal 31 4" xfId="719" xr:uid="{A52F83F1-AD45-46FF-8E3D-0069D0B95A24}"/>
-    <cellStyle name="Normal 32" xfId="720" xr:uid="{BB4AB87F-5A7D-4F61-9FA9-BC5DDF6B554D}"/>
-    <cellStyle name="Normal 32 2" xfId="721" xr:uid="{2A49A580-B87D-45C1-BC66-65415D501845}"/>
-    <cellStyle name="Normal 32 3" xfId="722" xr:uid="{60336BB0-3F59-4305-9309-F566370B65C1}"/>
-    <cellStyle name="Normal 33" xfId="723" xr:uid="{68D7504A-9800-453F-AAF9-CCF298BE1881}"/>
-    <cellStyle name="Normal 33 2" xfId="724" xr:uid="{C6753BF1-D8BE-4582-A552-D1A067B15395}"/>
-    <cellStyle name="Normal 34" xfId="725" xr:uid="{18227C75-75DF-44D1-829A-A63CABB70490}"/>
-    <cellStyle name="Normal 35" xfId="726" xr:uid="{630336DA-D3F1-488E-91D8-AE4B75CB8378}"/>
-    <cellStyle name="Normal 35 2" xfId="727" xr:uid="{AC2747BF-CD8E-4FF2-A230-919FF95085E8}"/>
-    <cellStyle name="Normal 35 3" xfId="728" xr:uid="{60A273E2-32F4-4560-B591-2D6852CA00A2}"/>
-    <cellStyle name="Normal 36" xfId="729" xr:uid="{EED4DDAA-BB06-4746-A892-FA1FD08F5B13}"/>
-    <cellStyle name="Normal 36 2" xfId="730" xr:uid="{785D08E6-D297-4E83-A3EA-51315D878EC1}"/>
-    <cellStyle name="Normal 36 3" xfId="731" xr:uid="{ACA6488C-F904-48AD-83DD-DA48305F74CF}"/>
-    <cellStyle name="Normal 36 4" xfId="732" xr:uid="{899D6865-B1D7-4419-8CB9-A7A284ED3742}"/>
-    <cellStyle name="Normal 37" xfId="733" xr:uid="{52047D10-D715-4A2B-8F21-CA7AFDA07D80}"/>
-    <cellStyle name="Normal 37 2" xfId="734" xr:uid="{28D561F1-7D55-426E-B286-6CCDFC248A19}"/>
-    <cellStyle name="Normal 37 3" xfId="735" xr:uid="{3D89FEFB-E0DD-4410-83F2-308C2D3F9D76}"/>
-    <cellStyle name="Normal 38" xfId="736" xr:uid="{EFFE4C73-1075-46B6-85F4-8B53836A8415}"/>
-    <cellStyle name="Normal 39" xfId="737" xr:uid="{43D2469F-8BA8-4676-85C8-392E9FAB5CC4}"/>
-    <cellStyle name="Normal 39 2" xfId="738" xr:uid="{CAB0AFAA-F3EE-46EE-9E43-B46759FF2167}"/>
-    <cellStyle name="Normal 4" xfId="739" xr:uid="{012E5A67-7783-4907-913B-7ED343045274}"/>
-    <cellStyle name="Normal 4 2" xfId="740" xr:uid="{49E786FC-FFFE-42E7-A0AA-312AA6D3CF53}"/>
-    <cellStyle name="Normal 4 2 2" xfId="741" xr:uid="{710C0310-8FE5-41B6-8B42-1E8E1808D1CD}"/>
-    <cellStyle name="Normal 4 2 3" xfId="742" xr:uid="{9C3FE502-F4BC-4CAE-A30D-0AABB2A47C24}"/>
-    <cellStyle name="Normal 4 3" xfId="743" xr:uid="{012DFB1E-BCE3-4E34-9783-CBA5578FA4E7}"/>
-    <cellStyle name="Normal 4 4" xfId="744" xr:uid="{9947C230-A418-485C-A193-1FEA6183EC9E}"/>
-    <cellStyle name="Normal 40" xfId="745" xr:uid="{D6C90AED-F8FF-440B-9290-6F1702965D68}"/>
-    <cellStyle name="Normal 40 2" xfId="746" xr:uid="{4A8BD125-50D2-4DC4-8CA2-8544D6AD2DDB}"/>
-    <cellStyle name="Normal 40 3" xfId="747" xr:uid="{BA26EC5F-F7A9-4227-94B2-776193BBD15B}"/>
-    <cellStyle name="Normal 41" xfId="748" xr:uid="{448E1661-64AA-44F8-BF30-485C8810B1BD}"/>
-    <cellStyle name="Normal 42" xfId="749" xr:uid="{C7BA18AA-DAE7-4372-AF0A-5D1D83334942}"/>
-    <cellStyle name="Normal 43" xfId="750" xr:uid="{E35E78DC-F1A8-473D-9B7C-7CED0133BC38}"/>
-    <cellStyle name="Normal 44" xfId="751" xr:uid="{FBA18005-31CB-4D51-B9D7-4331142926CE}"/>
-    <cellStyle name="Normal 45" xfId="752" xr:uid="{275F39BC-BBAB-4802-A217-C2AF46FA9765}"/>
-    <cellStyle name="Normal 46" xfId="753" xr:uid="{D076BD49-B85A-4C93-8AEA-D214F390A764}"/>
-    <cellStyle name="Normal 47" xfId="754" xr:uid="{EC3B2B37-63E6-4201-AF63-9299B40BDB11}"/>
-    <cellStyle name="Normal 48" xfId="755" xr:uid="{7E61032A-1287-4ACD-B9BD-E0695774756C}"/>
+    <cellStyle name="Normal 10" xfId="604" xr:uid="{843D937B-BC06-4AF3-B4C2-9EB29A2EFF9E}"/>
+    <cellStyle name="Normal 10 2" xfId="605" xr:uid="{B819A680-80F4-4AA5-AEAC-2ECCD4C55583}"/>
+    <cellStyle name="Normal 10 2 2" xfId="606" xr:uid="{84A74B5C-3839-4158-AC8B-F63C2C9AD18B}"/>
+    <cellStyle name="Normal 10 2 3" xfId="607" xr:uid="{45A7DF22-496B-4201-96CA-78A58E4872F6}"/>
+    <cellStyle name="Normal 10 3" xfId="608" xr:uid="{1F9C5F8F-BF26-474E-B4D2-E56D2B0DE1F6}"/>
+    <cellStyle name="Normal 10 4" xfId="609" xr:uid="{C3006804-1BC4-4990-B49A-542B73415A10}"/>
+    <cellStyle name="Normal 11" xfId="610" xr:uid="{2D4D25AE-C54D-4771-AB0A-DDCA03801FCD}"/>
+    <cellStyle name="Normal 11 2" xfId="611" xr:uid="{F3F9962A-7C74-4C73-A1BE-14B39EB61804}"/>
+    <cellStyle name="Normal 11 3" xfId="612" xr:uid="{1225B8BD-993C-46AB-9CDF-89905E0CE992}"/>
+    <cellStyle name="Normal 12" xfId="613" xr:uid="{6529ECB6-BACB-42E5-AA11-2F0C9355BB3D}"/>
+    <cellStyle name="Normal 12 2" xfId="614" xr:uid="{4550F53E-8F1D-450B-8524-4E8B75A4B827}"/>
+    <cellStyle name="Normal 12 3" xfId="615" xr:uid="{CB7636CA-27C3-4A06-BA74-5B6C9E080A74}"/>
+    <cellStyle name="Normal 13" xfId="616" xr:uid="{36C99341-5966-4859-A17E-8D0A65E7D415}"/>
+    <cellStyle name="Normal 13 2" xfId="617" xr:uid="{B36478F9-655E-45C4-B2BF-B4AD26E00DFC}"/>
+    <cellStyle name="Normal 13 3" xfId="618" xr:uid="{5BBEC1C2-8998-4C4E-81FF-C858AA0E9CBF}"/>
+    <cellStyle name="Normal 14" xfId="619" xr:uid="{0E47600E-03AE-4360-B5F9-A2EE9FBF3E84}"/>
+    <cellStyle name="Normal 14 2" xfId="620" xr:uid="{3EC9F118-6D8F-432E-A1EA-3FB389BEC007}"/>
+    <cellStyle name="Normal 14 3" xfId="621" xr:uid="{255468BF-9A06-45B2-90BD-BB8EAD86BB10}"/>
+    <cellStyle name="Normal 15" xfId="622" xr:uid="{5A63D57E-763E-4F84-B7C3-9676BB7B438F}"/>
+    <cellStyle name="Normal 15 2" xfId="623" xr:uid="{53DEF3DC-74F5-4912-A67D-756E8C5A22DE}"/>
+    <cellStyle name="Normal 15 2 2" xfId="624" xr:uid="{EB635BD4-86C6-45C2-B850-17E929EBCCF8}"/>
+    <cellStyle name="Normal 15 2 3" xfId="625" xr:uid="{275D14FC-5EA1-4114-A823-A208BD9BC38B}"/>
+    <cellStyle name="Normal 15 3" xfId="626" xr:uid="{682AE2EC-4C3E-4A10-A6BA-4C45763E1385}"/>
+    <cellStyle name="Normal 15 4" xfId="627" xr:uid="{63372C75-2040-438B-BCD6-0426318D9913}"/>
+    <cellStyle name="Normal 16" xfId="628" xr:uid="{E6D7C6B7-44DB-4DAA-B585-0752E958D476}"/>
+    <cellStyle name="Normal 16 2" xfId="629" xr:uid="{4DFAE032-110D-4945-ADB4-B2C5F3688751}"/>
+    <cellStyle name="Normal 16 2 2" xfId="630" xr:uid="{6F507E08-0480-410F-B84D-B99D6C74BB73}"/>
+    <cellStyle name="Normal 16 2 3" xfId="631" xr:uid="{B025BB11-1EDE-4B37-8CBF-F0E570F15810}"/>
+    <cellStyle name="Normal 16 3" xfId="632" xr:uid="{1C70F4F1-A4C8-4131-8BC0-7775232A998A}"/>
+    <cellStyle name="Normal 16 4" xfId="633" xr:uid="{23F5BDF5-7E32-4EBB-A500-56A3831EACEB}"/>
+    <cellStyle name="Normal 17" xfId="634" xr:uid="{12C08ED3-1348-4DC3-964A-17A5766232EE}"/>
+    <cellStyle name="Normal 17 2" xfId="635" xr:uid="{5CCF6FDB-215D-4992-9CE6-E4728E5ED39E}"/>
+    <cellStyle name="Normal 17 2 2" xfId="636" xr:uid="{6E54998C-921C-4D80-8CAE-D8ABC5F516EC}"/>
+    <cellStyle name="Normal 17 2 3" xfId="637" xr:uid="{3EC95161-3D42-4A45-969C-CD51D5AECCAF}"/>
+    <cellStyle name="Normal 17 3" xfId="638" xr:uid="{C5513912-1196-407F-AF33-368DB3212384}"/>
+    <cellStyle name="Normal 17 4" xfId="639" xr:uid="{C2B46B8E-F06B-4748-A799-AA538CBA5D30}"/>
+    <cellStyle name="Normal 18" xfId="640" xr:uid="{CC871325-F750-427A-9E6D-03214EEFC787}"/>
+    <cellStyle name="Normal 18 2" xfId="641" xr:uid="{558B57E8-79A7-4F8D-B898-EC64119BDC81}"/>
+    <cellStyle name="Normal 18 3" xfId="642" xr:uid="{5A6CD4A3-3E30-44B5-8F56-98B0768BBCB9}"/>
+    <cellStyle name="Normal 19" xfId="643" xr:uid="{D83244BA-3B98-4E67-BCEE-279589B2824B}"/>
+    <cellStyle name="Normal 19 2" xfId="644" xr:uid="{9E939AD1-8073-4945-977A-88CE9BAA26C1}"/>
+    <cellStyle name="Normal 19 3" xfId="645" xr:uid="{C6EDDA4D-BF73-44DD-A0E3-BBC577186FB8}"/>
+    <cellStyle name="Normal 2" xfId="646" xr:uid="{72DC79D7-1F59-4D44-B07D-C67919B1588A}"/>
+    <cellStyle name="Normal 2 10" xfId="647" xr:uid="{C8C9CD8B-F67A-4E3D-93AE-8B65B1DE8C4E}"/>
+    <cellStyle name="Normal 2 11" xfId="648" xr:uid="{BC3558FC-FC1A-44C4-9C47-DEE031325D26}"/>
+    <cellStyle name="Normal 2 2" xfId="649" xr:uid="{35A8CE6B-4F5A-4924-B7B8-532C974FA068}"/>
+    <cellStyle name="Normal 2 2 2" xfId="650" xr:uid="{FC6383F3-A2F6-41E4-B129-83566329608B}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="651" xr:uid="{FC7216B1-968C-4262-BD5E-380EDE6FEDD0}"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="652" xr:uid="{8C71D4A3-7024-46E5-8871-D735973F9272}"/>
+    <cellStyle name="Normal 2 2 2 2 3" xfId="653" xr:uid="{66C0487D-8BD7-464C-8A01-4EBDFEA60D33}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="654" xr:uid="{970D2A5F-2C7E-4E85-AEE2-0DFFC1FCC8FE}"/>
+    <cellStyle name="Normal 2 2 2_10-WRD_charts_v1" xfId="655" xr:uid="{AF325BE2-412F-402C-9C99-C6C3AB8EDF5D}"/>
+    <cellStyle name="Normal 2 2 3" xfId="656" xr:uid="{DE85357F-A493-4800-AFF2-59F21B40CB22}"/>
+    <cellStyle name="Normal 2 2 4" xfId="657" xr:uid="{4E389A21-9F01-4A8D-A01C-3E7AD12F3F59}"/>
+    <cellStyle name="Normal 2 2 5" xfId="658" xr:uid="{0A98239A-D31D-4C48-BB40-9403052CEDC2}"/>
+    <cellStyle name="Normal 2 2 6" xfId="659" xr:uid="{24D63B5C-E37F-4BA2-92C2-844A31FB9591}"/>
+    <cellStyle name="Normal 2 2 7" xfId="660" xr:uid="{10674095-9F1B-44DF-8CD2-30915FC40C0B}"/>
+    <cellStyle name="Normal 2 3" xfId="661" xr:uid="{DCB8D9F9-D7ED-43AA-8741-94A39D4B266A}"/>
+    <cellStyle name="Normal 2 3 2" xfId="662" xr:uid="{3615AAC8-7992-4756-BAF8-86462A209EF9}"/>
+    <cellStyle name="Normal 2 3 3" xfId="663" xr:uid="{37A716EB-A072-40A5-A4D7-A79D0BAB79B0}"/>
+    <cellStyle name="Normal 2 4" xfId="664" xr:uid="{1AB9AC74-C75C-4B8E-80B7-7B6F2E576E47}"/>
+    <cellStyle name="Normal 2 4 2" xfId="665" xr:uid="{E2AED48D-E885-4162-A0F3-04972F7BB32E}"/>
+    <cellStyle name="Normal 2 5" xfId="666" xr:uid="{9F1647B4-CF53-4A48-8F00-2F7E91ED51C9}"/>
+    <cellStyle name="Normal 2 5 2" xfId="667" xr:uid="{472CE497-93FB-4755-9605-FFA453C80B4B}"/>
+    <cellStyle name="Normal 2 5 3" xfId="668" xr:uid="{5AE4247B-7266-4908-B6A7-F0E92305623F}"/>
+    <cellStyle name="Normal 2 5_10-WRD_charts_v1" xfId="669" xr:uid="{155B1A50-8564-4B14-B4F8-2BAAA4E1C3F4}"/>
+    <cellStyle name="Normal 2 6" xfId="670" xr:uid="{69A422CE-869F-46FD-90DA-A44B5785BB8F}"/>
+    <cellStyle name="Normal 2 7" xfId="671" xr:uid="{3FB32EE0-307C-42AA-8CFD-B8B99D37EA76}"/>
+    <cellStyle name="Normal 2 8" xfId="672" xr:uid="{B4750F54-070D-4680-B604-DA10A2F3ED97}"/>
+    <cellStyle name="Normal 2 9" xfId="673" xr:uid="{B0FA9C1C-9B55-4DAC-B2D0-341F55977436}"/>
+    <cellStyle name="Normal 20" xfId="674" xr:uid="{3C678123-6CED-4B0E-AACC-3128947E59AC}"/>
+    <cellStyle name="Normal 20 2" xfId="675" xr:uid="{09D7096C-78BA-4EAB-9FAB-9663E08BF271}"/>
+    <cellStyle name="Normal 20 3" xfId="676" xr:uid="{A06B6713-7DD1-4091-AC2F-DD919CC2602E}"/>
+    <cellStyle name="Normal 21" xfId="677" xr:uid="{E893E2E7-A5AF-42F0-A88C-178985AF6580}"/>
+    <cellStyle name="Normal 21 2" xfId="678" xr:uid="{18E296B4-6655-4362-B370-F054AEEF9FF8}"/>
+    <cellStyle name="Normal 21 3" xfId="679" xr:uid="{6EF659E9-F499-4241-8011-C1A9A48045DF}"/>
+    <cellStyle name="Normal 22" xfId="680" xr:uid="{742A0907-20F1-4332-B27B-7058E24F454C}"/>
+    <cellStyle name="Normal 22 2" xfId="681" xr:uid="{D408A327-E664-47C8-A9C6-0DFD01A754D2}"/>
+    <cellStyle name="Normal 22 3" xfId="682" xr:uid="{61B97216-9ED5-4B5E-8AC4-6CDF77BB7CC1}"/>
+    <cellStyle name="Normal 23" xfId="683" xr:uid="{9846D6BF-0BFE-4564-A09A-6C504443DA9C}"/>
+    <cellStyle name="Normal 23 2" xfId="684" xr:uid="{20BE2E39-9EB6-42C7-B487-CF5C6863C1B5}"/>
+    <cellStyle name="Normal 23 3" xfId="685" xr:uid="{3CE9A73F-2549-4EE0-80B2-E216F4BED643}"/>
+    <cellStyle name="Normal 24" xfId="686" xr:uid="{32DEF3AE-617E-4A36-99FF-C141AE3E0016}"/>
+    <cellStyle name="Normal 24 2" xfId="687" xr:uid="{7A10C3FB-9C6B-4545-BBAB-EEEE1237370D}"/>
+    <cellStyle name="Normal 25" xfId="688" xr:uid="{D3F01B0E-3ED9-4E38-8649-E4F71DEFEF8D}"/>
+    <cellStyle name="Normal 25 2" xfId="689" xr:uid="{019E5C24-AA68-43EF-8E25-648439B4DF54}"/>
+    <cellStyle name="Normal 25 3" xfId="690" xr:uid="{4AAC1ABF-C9F9-43C6-B536-0868E89F215C}"/>
+    <cellStyle name="Normal 26" xfId="691" xr:uid="{4CC7FF91-B92D-4A16-A9D7-A234F9F82FBA}"/>
+    <cellStyle name="Normal 26 2" xfId="692" xr:uid="{7F6A80DE-056A-4AB5-8FCC-A6B9ED2A0662}"/>
+    <cellStyle name="Normal 26 3" xfId="693" xr:uid="{80A86B04-C631-4AEE-97F1-471E270EE909}"/>
+    <cellStyle name="Normal 27" xfId="694" xr:uid="{636FEDDD-5332-4CB4-99D3-9C7E8427C22A}"/>
+    <cellStyle name="Normal 27 2" xfId="695" xr:uid="{10981309-0313-4B7C-B82E-FD05CD209C57}"/>
+    <cellStyle name="Normal 27 3" xfId="696" xr:uid="{453F8D33-3FEB-4FFD-8672-99CCF6D55910}"/>
+    <cellStyle name="Normal 28" xfId="697" xr:uid="{94320160-5B60-4593-82CD-CF4463417ED4}"/>
+    <cellStyle name="Normal 28 2" xfId="698" xr:uid="{EE86D961-A737-4FD5-8F8A-5406D1D268D2}"/>
+    <cellStyle name="Normal 28 3" xfId="699" xr:uid="{CB696C5D-A175-441A-B5D6-F94B256CCDC3}"/>
+    <cellStyle name="Normal 29" xfId="700" xr:uid="{370B5867-B42F-40D0-8FB5-7CDCE9959110}"/>
+    <cellStyle name="Normal 29 2" xfId="701" xr:uid="{555B33FD-7115-4ABA-9BDB-564818941C76}"/>
+    <cellStyle name="Normal 29 3" xfId="702" xr:uid="{B7E9804A-FA68-49A5-AA3A-166183C14CB2}"/>
+    <cellStyle name="Normal 3" xfId="703" xr:uid="{F4D93AD1-80DA-431D-8169-F01706331E2E}"/>
+    <cellStyle name="Normal 3 2" xfId="704" xr:uid="{02DC9EFA-B290-4930-A039-BF3070D5FB4D}"/>
+    <cellStyle name="Normal 3 3" xfId="705" xr:uid="{261ABC02-C02C-42EB-AE67-2D3C261164ED}"/>
+    <cellStyle name="Normal 3 4" xfId="706" xr:uid="{ADA58CB4-764E-47CA-8911-28CC2454782F}"/>
+    <cellStyle name="Normal 3 5" xfId="707" xr:uid="{CF018208-2A47-4889-AC84-8643E5F4D481}"/>
+    <cellStyle name="Normal 3 6" xfId="708" xr:uid="{27C0D779-7D0F-4B5E-AE07-D9BB4C784DE5}"/>
+    <cellStyle name="Normal 3 7" xfId="709" xr:uid="{BBA0C3E6-10B9-42FA-90D9-7D00F2A2FCE4}"/>
+    <cellStyle name="Normal 3 8" xfId="710" xr:uid="{D3394164-B80F-4069-8A64-5ACF6CFBB51C}"/>
+    <cellStyle name="Normal 3_10-WRD_charts_v1" xfId="711" xr:uid="{7E1D746A-BBC1-4226-9040-02BBFFFDD127}"/>
+    <cellStyle name="Normal 30" xfId="712" xr:uid="{4410BADD-83B1-4EAF-A431-F4C9532309BB}"/>
+    <cellStyle name="Normal 30 2" xfId="713" xr:uid="{42278FE2-4FCD-4F5F-877B-3874C2D62565}"/>
+    <cellStyle name="Normal 30 3" xfId="714" xr:uid="{B4EF92FE-8E0B-4FD4-9C54-4EBD45823CF3}"/>
+    <cellStyle name="Normal 31" xfId="715" xr:uid="{0573AE3E-ACC0-4236-BDF5-BF3CD7B9AF5E}"/>
+    <cellStyle name="Normal 31 2" xfId="716" xr:uid="{CB3C5C41-7ED6-408E-83C4-F07A0D980692}"/>
+    <cellStyle name="Normal 31 3" xfId="717" xr:uid="{94C910C7-C677-4787-861B-C9C0B1AB64CF}"/>
+    <cellStyle name="Normal 31 4" xfId="718" xr:uid="{A52F83F1-AD45-46FF-8E3D-0069D0B95A24}"/>
+    <cellStyle name="Normal 32" xfId="719" xr:uid="{BB4AB87F-5A7D-4F61-9FA9-BC5DDF6B554D}"/>
+    <cellStyle name="Normal 32 2" xfId="720" xr:uid="{2A49A580-B87D-45C1-BC66-65415D501845}"/>
+    <cellStyle name="Normal 32 3" xfId="721" xr:uid="{60336BB0-3F59-4305-9309-F566370B65C1}"/>
+    <cellStyle name="Normal 33" xfId="722" xr:uid="{68D7504A-9800-453F-AAF9-CCF298BE1881}"/>
+    <cellStyle name="Normal 33 2" xfId="723" xr:uid="{C6753BF1-D8BE-4582-A552-D1A067B15395}"/>
+    <cellStyle name="Normal 34" xfId="724" xr:uid="{18227C75-75DF-44D1-829A-A63CABB70490}"/>
+    <cellStyle name="Normal 35" xfId="725" xr:uid="{630336DA-D3F1-488E-91D8-AE4B75CB8378}"/>
+    <cellStyle name="Normal 35 2" xfId="726" xr:uid="{AC2747BF-CD8E-4FF2-A230-919FF95085E8}"/>
+    <cellStyle name="Normal 35 3" xfId="727" xr:uid="{60A273E2-32F4-4560-B591-2D6852CA00A2}"/>
+    <cellStyle name="Normal 36" xfId="728" xr:uid="{EED4DDAA-BB06-4746-A892-FA1FD08F5B13}"/>
+    <cellStyle name="Normal 36 2" xfId="729" xr:uid="{785D08E6-D297-4E83-A3EA-51315D878EC1}"/>
+    <cellStyle name="Normal 36 3" xfId="730" xr:uid="{ACA6488C-F904-48AD-83DD-DA48305F74CF}"/>
+    <cellStyle name="Normal 36 4" xfId="731" xr:uid="{899D6865-B1D7-4419-8CB9-A7A284ED3742}"/>
+    <cellStyle name="Normal 37" xfId="732" xr:uid="{52047D10-D715-4A2B-8F21-CA7AFDA07D80}"/>
+    <cellStyle name="Normal 37 2" xfId="733" xr:uid="{28D561F1-7D55-426E-B286-6CCDFC248A19}"/>
+    <cellStyle name="Normal 37 3" xfId="734" xr:uid="{3D89FEFB-E0DD-4410-83F2-308C2D3F9D76}"/>
+    <cellStyle name="Normal 38" xfId="735" xr:uid="{EFFE4C73-1075-46B6-85F4-8B53836A8415}"/>
+    <cellStyle name="Normal 39" xfId="736" xr:uid="{43D2469F-8BA8-4676-85C8-392E9FAB5CC4}"/>
+    <cellStyle name="Normal 39 2" xfId="737" xr:uid="{CAB0AFAA-F3EE-46EE-9E43-B46759FF2167}"/>
+    <cellStyle name="Normal 4" xfId="738" xr:uid="{012E5A67-7783-4907-913B-7ED343045274}"/>
+    <cellStyle name="Normal 4 2" xfId="739" xr:uid="{49E786FC-FFFE-42E7-A0AA-312AA6D3CF53}"/>
+    <cellStyle name="Normal 4 2 2" xfId="740" xr:uid="{710C0310-8FE5-41B6-8B42-1E8E1808D1CD}"/>
+    <cellStyle name="Normal 4 2 3" xfId="741" xr:uid="{9C3FE502-F4BC-4CAE-A30D-0AABB2A47C24}"/>
+    <cellStyle name="Normal 4 3" xfId="742" xr:uid="{012DFB1E-BCE3-4E34-9783-CBA5578FA4E7}"/>
+    <cellStyle name="Normal 4 4" xfId="743" xr:uid="{9947C230-A418-485C-A193-1FEA6183EC9E}"/>
+    <cellStyle name="Normal 40" xfId="744" xr:uid="{D6C90AED-F8FF-440B-9290-6F1702965D68}"/>
+    <cellStyle name="Normal 40 2" xfId="745" xr:uid="{4A8BD125-50D2-4DC4-8CA2-8544D6AD2DDB}"/>
+    <cellStyle name="Normal 40 3" xfId="746" xr:uid="{BA26EC5F-F7A9-4227-94B2-776193BBD15B}"/>
+    <cellStyle name="Normal 41" xfId="747" xr:uid="{448E1661-64AA-44F8-BF30-485C8810B1BD}"/>
+    <cellStyle name="Normal 42" xfId="748" xr:uid="{C7BA18AA-DAE7-4372-AF0A-5D1D83334942}"/>
+    <cellStyle name="Normal 43" xfId="749" xr:uid="{E35E78DC-F1A8-473D-9B7C-7CED0133BC38}"/>
+    <cellStyle name="Normal 44" xfId="750" xr:uid="{FBA18005-31CB-4D51-B9D7-4331142926CE}"/>
+    <cellStyle name="Normal 45" xfId="751" xr:uid="{275F39BC-BBAB-4802-A217-C2AF46FA9765}"/>
+    <cellStyle name="Normal 46" xfId="752" xr:uid="{D076BD49-B85A-4C93-8AEA-D214F390A764}"/>
+    <cellStyle name="Normal 47" xfId="753" xr:uid="{EC3B2B37-63E6-4201-AF63-9299B40BDB11}"/>
+    <cellStyle name="Normal 48" xfId="754" xr:uid="{7E61032A-1287-4ACD-B9BD-E0695774756C}"/>
     <cellStyle name="Normal 49" xfId="1" xr:uid="{E84FC3FB-9E4A-4F6E-B122-E948118C00E7}"/>
-    <cellStyle name="Normal 5" xfId="756" xr:uid="{65840ED2-260C-4141-8240-1B99E963DDF4}"/>
-    <cellStyle name="Normal 5 2" xfId="757" xr:uid="{4FA2B148-544B-45FC-A61B-4EAC75C24C96}"/>
-    <cellStyle name="Normal 5 3" xfId="758" xr:uid="{5F7DA7A8-0842-49CD-83DB-1CDCF6F574A1}"/>
-    <cellStyle name="Normal 5 3 2" xfId="759" xr:uid="{F306E457-7EFE-489D-91B3-3E19B4C6175F}"/>
-    <cellStyle name="Normal 50" xfId="919" xr:uid="{1AFE5906-9FF8-4EFD-858E-6E6F63E91A8D}"/>
-    <cellStyle name="Normal 6" xfId="760" xr:uid="{DD168BE4-662B-4D4D-83E8-087A18E044F0}"/>
-    <cellStyle name="Normal 6 2" xfId="761" xr:uid="{46365341-E695-4F92-AD54-3BDC782049D5}"/>
-    <cellStyle name="Normal 6 2 2" xfId="762" xr:uid="{9EF86D43-BAC5-4CAF-AD06-DAF1C98A4296}"/>
-    <cellStyle name="Normal 6 3" xfId="763" xr:uid="{44DD65DC-2834-4D7F-9787-0A5B02F3E426}"/>
-    <cellStyle name="Normal 6 3 2" xfId="764" xr:uid="{CB548B4B-99E4-4D69-8B5C-461839A0CD09}"/>
-    <cellStyle name="Normal 6 3 3" xfId="765" xr:uid="{F3C70BCD-EEF2-426B-BE0C-6D65890877F9}"/>
-    <cellStyle name="Normal 6 4" xfId="766" xr:uid="{9B5D957B-52A1-43C3-9242-65128002B9CE}"/>
-    <cellStyle name="Normal 6 5" xfId="767" xr:uid="{A0FC14AF-EDB4-468F-8124-4BFD97DD6D44}"/>
-    <cellStyle name="Normal 7" xfId="768" xr:uid="{FC32689A-68ED-4570-985E-380DFE89EC10}"/>
-    <cellStyle name="Normal 7 2" xfId="769" xr:uid="{C62AC001-29B1-46B0-8CD1-C040BFED1B71}"/>
-    <cellStyle name="Normal 7 2 2" xfId="770" xr:uid="{B61DB48A-4ED4-420A-B3CA-285B91424676}"/>
-    <cellStyle name="Normal 7 2 3" xfId="771" xr:uid="{09F689CE-54A3-408C-8E8C-9987BEBF262D}"/>
-    <cellStyle name="Normal 7 3" xfId="772" xr:uid="{1D4CAD06-8E1B-4669-9641-377C4637A7F9}"/>
-    <cellStyle name="Normal 7 4" xfId="773" xr:uid="{C2FBE7EB-485E-4EC3-9AD8-AF8D37CC15D7}"/>
-    <cellStyle name="Normal 8" xfId="774" xr:uid="{57453019-C7C2-42BC-884D-76B0519A3BCE}"/>
-    <cellStyle name="Normal 8 2" xfId="775" xr:uid="{3AC39A68-D629-43ED-B883-E262D9DB415E}"/>
-    <cellStyle name="Normal 8 3" xfId="776" xr:uid="{511652E1-3B39-4FDD-B587-18CCC12A72CF}"/>
-    <cellStyle name="Normal 8 4" xfId="777" xr:uid="{08C6F707-113F-4323-8479-2697462BF5BA}"/>
-    <cellStyle name="Normal 9" xfId="778" xr:uid="{E14E5644-8961-47B4-B536-DD50E3F89FD7}"/>
-    <cellStyle name="Normal 9 2" xfId="779" xr:uid="{6C402464-AE51-4543-B59A-B87E6F5ECABC}"/>
-    <cellStyle name="Normal 9 3" xfId="780" xr:uid="{2F2AA647-6CF5-4085-9F00-D14C42498734}"/>
-    <cellStyle name="Normál_B17" xfId="781" xr:uid="{CE22F144-543B-4D1B-AF27-9108BBCD7B2C}"/>
-    <cellStyle name="Normal-droit" xfId="782" xr:uid="{68953714-3D7B-4F24-BD97-80D6E66E4B28}"/>
-    <cellStyle name="normální 2" xfId="783" xr:uid="{DE176A52-802F-4500-8A35-55DD3FAA9776}"/>
-    <cellStyle name="normální 2 2" xfId="784" xr:uid="{7B6C8D90-9C2C-4AE0-99BC-4E01124C86BA}"/>
-    <cellStyle name="normální_povolenikpopbytudlezemipuvodu942000" xfId="785" xr:uid="{2AE2DF68-BBB7-4F2B-8527-E4D5BA242376}"/>
-    <cellStyle name="Note 2" xfId="787" xr:uid="{FE04F360-D9B1-4673-8BD7-46FB55A0B0E0}"/>
-    <cellStyle name="Note 2 2" xfId="788" xr:uid="{4FE53D68-5CDF-40CA-8044-7992AE3F078F}"/>
-    <cellStyle name="Note 2 3" xfId="789" xr:uid="{15D89C68-D4AF-40B0-B951-CEF19EEBABC6}"/>
-    <cellStyle name="Note 2 4" xfId="790" xr:uid="{7DF0CC21-0AAE-45C8-9A1F-54A37A8744A5}"/>
-    <cellStyle name="Note 2_10-WRD_charts_v1" xfId="791" xr:uid="{A8D6144F-B5E7-4A5C-9020-E33E5195198D}"/>
-    <cellStyle name="Note 3" xfId="792" xr:uid="{144E8565-D36A-4D88-8F9A-BE229BD5913D}"/>
-    <cellStyle name="Note 3 2" xfId="793" xr:uid="{96E39D56-8E79-4C1C-9FA9-BDE2E1415CA7}"/>
-    <cellStyle name="Note 3 3" xfId="794" xr:uid="{25FD0311-5DC4-44AB-81C6-0A5BDC621ACB}"/>
-    <cellStyle name="Note 4" xfId="795" xr:uid="{8D0BCE7E-8399-41F5-8268-F04A8DDA70F2}"/>
-    <cellStyle name="Note 5" xfId="796" xr:uid="{EE0E896E-D181-4FC1-B404-B126D83D4F98}"/>
-    <cellStyle name="Note 6" xfId="797" xr:uid="{4F2DA2C2-448C-473F-9AD0-648CBD33346B}"/>
-    <cellStyle name="Note 7" xfId="798" xr:uid="{561CCA7F-3917-4051-99DA-080C38E33622}"/>
-    <cellStyle name="Note 8" xfId="799" xr:uid="{F6FF9E2B-7A09-4661-BF59-B3EABFC2B973}"/>
-    <cellStyle name="Note 9" xfId="786" xr:uid="{96D4C212-54AD-4820-88D2-8DFCCBC41AE6}"/>
-    <cellStyle name="notes" xfId="800" xr:uid="{EBE773EA-F256-4DFF-AF71-4B1F394CA468}"/>
-    <cellStyle name="Output 2" xfId="802" xr:uid="{00D30CD4-55D0-44F2-B207-D60D4090C67B}"/>
-    <cellStyle name="Output 2 2" xfId="803" xr:uid="{392FE068-5244-4743-836A-B5D653261758}"/>
-    <cellStyle name="Output 2 3" xfId="804" xr:uid="{C95751CC-FC72-43DC-B62C-66C0EE233CFC}"/>
-    <cellStyle name="Output 2 4" xfId="805" xr:uid="{4EA7E2EF-3536-437D-A11E-722DB928980B}"/>
-    <cellStyle name="Output 2_10-WRD_charts_v1" xfId="806" xr:uid="{8D30B44D-67CE-474F-83B4-6548B6AC4C7F}"/>
-    <cellStyle name="Output 3" xfId="807" xr:uid="{03480317-C90E-49E6-BEA6-3ED8C58C39C8}"/>
-    <cellStyle name="Output 3 2" xfId="808" xr:uid="{CA29E7E6-306F-4AF1-9A0A-2C52E2E0D2FF}"/>
-    <cellStyle name="Output 4" xfId="809" xr:uid="{3E6C0AE9-3E13-48BD-9E74-E54D761C75A3}"/>
-    <cellStyle name="Output 5" xfId="810" xr:uid="{C37656AF-B5B1-4CDC-BFD2-AB5A60FFAA8E}"/>
-    <cellStyle name="Output 6" xfId="811" xr:uid="{3D9CFB38-D09D-41D6-AA0A-9EDB28F31266}"/>
-    <cellStyle name="Output 7" xfId="812" xr:uid="{60DE8869-C213-4E79-88A3-DB16ADAFE7F4}"/>
-    <cellStyle name="Output 8" xfId="813" xr:uid="{D616C7DE-6C05-4404-8B9D-E63909BA6A47}"/>
-    <cellStyle name="Output 9" xfId="801" xr:uid="{11EB4CB2-E058-47D5-A637-2F1F0D2F0939}"/>
-    <cellStyle name="Pénznem [0]_demo" xfId="814" xr:uid="{DAB35F26-B25B-4DCA-A568-3CECD2D49B60}"/>
-    <cellStyle name="Pénznem_demo" xfId="815" xr:uid="{85EE2FEF-B829-4BC6-892D-B24E27C0CABA}"/>
-    <cellStyle name="Percent 10" xfId="817" xr:uid="{2A12A106-E87F-43AE-996C-3F8A060E72E5}"/>
-    <cellStyle name="Percent 10 2" xfId="818" xr:uid="{5055C3B6-D2A5-4D48-A519-BCC7FCE880B8}"/>
-    <cellStyle name="Percent 10 2 2" xfId="819" xr:uid="{75F61A42-5855-4730-9CEE-A8A6D6141D2E}"/>
-    <cellStyle name="Percent 10 2 3" xfId="820" xr:uid="{238E2E6A-A3D4-46F6-B170-1DE78123CEE8}"/>
-    <cellStyle name="Percent 10 3" xfId="821" xr:uid="{03852337-C83C-4332-993F-34DF21DD1C81}"/>
-    <cellStyle name="Percent 10 4" xfId="822" xr:uid="{2AB28CEA-B181-488F-A81A-F4C233C59680}"/>
-    <cellStyle name="Percent 11" xfId="823" xr:uid="{8381E743-BFE4-458B-8AA6-113CAB0B06AA}"/>
-    <cellStyle name="Percent 11 2" xfId="824" xr:uid="{68BB3007-BA60-4AFB-AC2D-52F3F8125359}"/>
-    <cellStyle name="Percent 11 3" xfId="825" xr:uid="{7D8E9A8C-24C8-4DAC-B1A3-9CD9369C01EB}"/>
-    <cellStyle name="Percent 12" xfId="826" xr:uid="{AC2CA3B1-E64F-446A-B259-08C6AC0B9D62}"/>
-    <cellStyle name="Percent 12 2" xfId="827" xr:uid="{CDD2D47D-F792-4C08-8500-7C59438095F5}"/>
-    <cellStyle name="Percent 12 3" xfId="828" xr:uid="{027012EA-0F06-4E38-A4E0-A73DE2A42231}"/>
-    <cellStyle name="Percent 13" xfId="829" xr:uid="{CC63AF9F-5BE4-4C26-8A65-6244EEDEFA3B}"/>
-    <cellStyle name="Percent 13 2" xfId="830" xr:uid="{42F2627D-17B6-4FA9-A8CF-D16475CBEF80}"/>
-    <cellStyle name="Percent 13 3" xfId="831" xr:uid="{834C9AA3-F6D1-4FFB-BDED-76A1F9AE1B91}"/>
-    <cellStyle name="Percent 14" xfId="832" xr:uid="{72E0C4CD-8D1E-4D2E-91A8-2A6276FF1AC7}"/>
-    <cellStyle name="Percent 14 2" xfId="833" xr:uid="{FB711B80-23A1-47F4-81E0-51A776FABCB2}"/>
-    <cellStyle name="Percent 14 3" xfId="834" xr:uid="{FA679980-7B2C-4CAA-8B83-97E0FE75D7E9}"/>
-    <cellStyle name="Percent 15" xfId="835" xr:uid="{ED597025-5708-4C13-829C-03F48C651CCE}"/>
-    <cellStyle name="Percent 15 2" xfId="836" xr:uid="{9B5F7F90-2F3D-42C8-99F1-6EDF9AF5DC6A}"/>
-    <cellStyle name="Percent 15 3" xfId="837" xr:uid="{4C1E6109-678F-4373-B146-31A59B48699A}"/>
-    <cellStyle name="Percent 16" xfId="838" xr:uid="{CB49EE6B-0FB2-4894-A38D-B6556B2CD6BD}"/>
-    <cellStyle name="Percent 16 2" xfId="839" xr:uid="{8619D90C-7BDD-4574-8700-E55B79F1FE39}"/>
-    <cellStyle name="Percent 16 3" xfId="840" xr:uid="{29106F0E-8537-4875-B842-24BFF394EBFF}"/>
-    <cellStyle name="Percent 16 4" xfId="841" xr:uid="{463C5A16-9310-4B85-B44C-4132D3F13FA1}"/>
-    <cellStyle name="Percent 17" xfId="842" xr:uid="{9C5D2790-7670-4EC2-8391-89B8F1968991}"/>
-    <cellStyle name="Percent 17 2" xfId="843" xr:uid="{E910EC94-A209-4BE9-B594-2B2A37DA8036}"/>
-    <cellStyle name="Percent 17 3" xfId="844" xr:uid="{F1490A7C-596E-437D-BF17-CF107108627E}"/>
-    <cellStyle name="Percent 18" xfId="845" xr:uid="{B33EF275-1833-462E-A020-B4285C404202}"/>
-    <cellStyle name="Percent 18 2" xfId="846" xr:uid="{D6873526-E505-470A-9DC3-4C5B516C84B5}"/>
-    <cellStyle name="Percent 18 3" xfId="847" xr:uid="{0B19C426-FF22-4C81-B9F9-29BAC97E8F8D}"/>
-    <cellStyle name="Percent 19" xfId="848" xr:uid="{C12DE4DA-9600-49F5-A904-0451D238415F}"/>
-    <cellStyle name="Percent 2" xfId="849" xr:uid="{AA239658-BC2D-4B46-9AEA-3550EDDFA3DC}"/>
-    <cellStyle name="Percent 2 2" xfId="850" xr:uid="{E23D2DFA-49EE-4B29-BED7-499754B06A8E}"/>
-    <cellStyle name="Percent 20" xfId="851" xr:uid="{B1B786CA-503E-45D9-B3F6-70A44782B104}"/>
-    <cellStyle name="Percent 21" xfId="816" xr:uid="{8A67947D-8598-4919-A771-B122139A1064}"/>
-    <cellStyle name="Percent 3" xfId="852" xr:uid="{AE233AA8-4BF2-45FE-872C-517FBF4C3A09}"/>
-    <cellStyle name="Percent 3 2" xfId="853" xr:uid="{B9945B3D-1BF1-44A9-B1C1-B274106EC5E8}"/>
-    <cellStyle name="Percent 4" xfId="854" xr:uid="{1765FC55-842F-4A53-9D3F-598CED0CFAB9}"/>
-    <cellStyle name="Percent 4 2" xfId="855" xr:uid="{8969C7AB-FFED-44E6-AE74-232D33942E3C}"/>
-    <cellStyle name="Percent 5" xfId="856" xr:uid="{F466CAB3-3254-4862-8C0F-E0915272F6B2}"/>
-    <cellStyle name="Percent 5 2" xfId="857" xr:uid="{BCA1031F-4B6F-48D8-9CCA-0CDD4547D008}"/>
-    <cellStyle name="Percent 5 2 2" xfId="858" xr:uid="{93ABCA8D-29EF-46BD-BAEA-6240A2CD1660}"/>
-    <cellStyle name="Percent 5 3" xfId="859" xr:uid="{C291AC49-B90D-4584-A94F-5E465876B182}"/>
-    <cellStyle name="Percent 5 3 2" xfId="860" xr:uid="{0178ADB9-3DB5-4660-8A0B-DD6126817498}"/>
-    <cellStyle name="Percent 5 3 3" xfId="861" xr:uid="{36296B0C-1066-42D3-BF93-0B22C5672D97}"/>
-    <cellStyle name="Percent 5 4" xfId="862" xr:uid="{357F46F8-4051-402D-8E16-F9CF5D67CBF0}"/>
-    <cellStyle name="Percent 5 5" xfId="863" xr:uid="{C77A0931-ECB1-4C72-8723-9610E30A1225}"/>
-    <cellStyle name="Percent 6" xfId="864" xr:uid="{35E239A4-461B-4AD8-B294-83DDC66F1611}"/>
-    <cellStyle name="Percent 6 2" xfId="865" xr:uid="{EEBC32C3-9290-46CE-9B8C-D0B61CE46E0F}"/>
-    <cellStyle name="Percent 6 3" xfId="866" xr:uid="{CE605705-E60B-4169-A5A0-050B339C940A}"/>
-    <cellStyle name="Percent 7" xfId="867" xr:uid="{D468594D-4DCD-4969-A44F-FC123936176F}"/>
-    <cellStyle name="Percent 7 2" xfId="868" xr:uid="{8EDFFC73-5C17-4478-BD60-7E508D9C75F0}"/>
-    <cellStyle name="Percent 7 3" xfId="869" xr:uid="{1171D094-D5B5-4532-8B2A-EED8FA92B638}"/>
-    <cellStyle name="Percent 8" xfId="870" xr:uid="{D65CF949-8AAD-47FE-B765-2472A26A69BC}"/>
-    <cellStyle name="Percent 8 2" xfId="871" xr:uid="{FB5432C9-B607-4AB2-B217-C5063A98B09C}"/>
-    <cellStyle name="Percent 9" xfId="872" xr:uid="{1FFF8C47-2B47-48FD-9BE8-202C5D35E591}"/>
-    <cellStyle name="Percent 9 2" xfId="873" xr:uid="{57D5CC4E-3BD6-417B-8727-D4377B5B9E03}"/>
-    <cellStyle name="Percent 9 3" xfId="874" xr:uid="{2914424B-E0AE-416E-8712-A200B1C9EC45}"/>
-    <cellStyle name="semestre" xfId="875" xr:uid="{59F37500-50D7-42C4-A876-64B8BECE528E}"/>
-    <cellStyle name="Standard_T12998" xfId="876" xr:uid="{666F9ED6-8D09-4D1D-8BE2-26E8D68C05C5}"/>
-    <cellStyle name="Style 27" xfId="877" xr:uid="{9EF0BE52-3199-4696-BFC5-C3A07D6AC330}"/>
-    <cellStyle name="Style 35" xfId="878" xr:uid="{AD164504-1BE3-4930-B5CF-E76FFD11D34F}"/>
-    <cellStyle name="Style 36" xfId="879" xr:uid="{FA4112FE-4FA2-42B0-ACFE-E7E09B61947B}"/>
-    <cellStyle name="tête chapitre" xfId="880" xr:uid="{21F06068-DE6D-4EF5-B68D-1E3BBD69B750}"/>
-    <cellStyle name="Title 2" xfId="882" xr:uid="{0BF14E06-1214-47D2-937F-C253C0C2A31C}"/>
-    <cellStyle name="Title 2 2" xfId="883" xr:uid="{69C06991-9520-41D7-BAA1-FC663598A3A9}"/>
-    <cellStyle name="Title 2 3" xfId="884" xr:uid="{4FB9724E-8498-4063-81E5-564F6674577B}"/>
-    <cellStyle name="Title 2 4" xfId="885" xr:uid="{12D96359-CFFA-4F3E-9257-6F0D01321282}"/>
-    <cellStyle name="Title 3" xfId="886" xr:uid="{128CAF68-358F-49AD-B757-AB53AFBB8222}"/>
-    <cellStyle name="Title 4" xfId="887" xr:uid="{9DD103C7-D8A9-4830-BEC4-9FE5C75591DC}"/>
-    <cellStyle name="Title 5" xfId="888" xr:uid="{5BCE2CFB-95D2-4201-966A-B18413F5BFDE}"/>
-    <cellStyle name="Title 6" xfId="889" xr:uid="{CF790690-A646-4A89-A811-9738E6707B36}"/>
-    <cellStyle name="Title 7" xfId="890" xr:uid="{4D3AFE34-D1F6-4147-9C2B-FFF6D99544E4}"/>
-    <cellStyle name="Title 8" xfId="891" xr:uid="{94A83D32-5E88-4138-A1F4-4251FFC898DC}"/>
-    <cellStyle name="Title 9" xfId="881" xr:uid="{76A5814E-B0C0-44D8-9FC3-E650D8C082F0}"/>
-    <cellStyle name="titre" xfId="892" xr:uid="{7B7C3954-364B-41C9-BF84-EAD6F67D34A5}"/>
-    <cellStyle name="Total 2" xfId="894" xr:uid="{29B2F26F-2D7B-4CE8-BB8B-B2888B547A35}"/>
-    <cellStyle name="Total 2 2" xfId="895" xr:uid="{C184D1CA-DB2E-43D9-8594-5842FAE5B0C7}"/>
-    <cellStyle name="Total 2 3" xfId="896" xr:uid="{E1619FDB-CA0A-4EDE-9C3D-E5FD07649302}"/>
-    <cellStyle name="Total 2 4" xfId="897" xr:uid="{E5589C5C-4A80-403E-9A58-21B95C248649}"/>
-    <cellStyle name="Total 2_10-WRD_charts_v1" xfId="898" xr:uid="{C3ACD9A8-A6DC-4993-AB04-A7F62F825A3E}"/>
-    <cellStyle name="Total 3" xfId="899" xr:uid="{36703F89-1747-4721-B5E8-8E0713E75ADA}"/>
-    <cellStyle name="Total 3 2" xfId="900" xr:uid="{3318F4BD-D6CA-4571-8371-19773DCE9295}"/>
-    <cellStyle name="Total 4" xfId="901" xr:uid="{D84334FD-4E40-4007-9D71-3F5099F145A8}"/>
-    <cellStyle name="Total 5" xfId="902" xr:uid="{E9132377-0D0F-4DEE-AF78-59D8FADB2276}"/>
-    <cellStyle name="Total 6" xfId="903" xr:uid="{8EA80481-388F-4F73-8FCA-804EBFC2A5A3}"/>
-    <cellStyle name="Total 7" xfId="904" xr:uid="{13843A44-77C5-4D19-866F-4C8256A98BC1}"/>
-    <cellStyle name="Total 8" xfId="905" xr:uid="{591D4F20-07B8-4E32-9B5B-6A3A8C6D79C2}"/>
-    <cellStyle name="Total 9" xfId="893" xr:uid="{6A623495-F069-4F62-A442-D3A774131617}"/>
-    <cellStyle name="Warning Text 2" xfId="907" xr:uid="{278F2F34-A021-4D51-BEE2-50145C65B31E}"/>
-    <cellStyle name="Warning Text 2 2" xfId="908" xr:uid="{491CBB80-F16A-48CF-8B40-341B749A97E2}"/>
-    <cellStyle name="Warning Text 2 3" xfId="909" xr:uid="{EAE3EC28-3E15-4A79-A843-7DB3F90302EB}"/>
-    <cellStyle name="Warning Text 2 4" xfId="910" xr:uid="{610E83D3-3DD1-4767-B680-1B571B01AF5B}"/>
-    <cellStyle name="Warning Text 3" xfId="911" xr:uid="{51CBDE76-39F1-4380-B138-B59E19960DA5}"/>
-    <cellStyle name="Warning Text 3 2" xfId="912" xr:uid="{467B4056-CD8A-4AF3-BC1E-9B1553D69FDE}"/>
-    <cellStyle name="Warning Text 4" xfId="913" xr:uid="{7E237B8D-D607-4DA0-8E7A-2EC2A9CBA587}"/>
-    <cellStyle name="Warning Text 5" xfId="914" xr:uid="{45F5CE03-0495-491F-8FD0-BE28B934923A}"/>
-    <cellStyle name="Warning Text 6" xfId="915" xr:uid="{F4FA324C-5DC6-40B7-92ED-7572C0171387}"/>
-    <cellStyle name="Warning Text 7" xfId="916" xr:uid="{1F1D1E7D-D14A-4A95-AC6F-668D371F5B1F}"/>
-    <cellStyle name="Warning Text 8" xfId="917" xr:uid="{2CA080C3-7400-4343-8AC9-4C8A7AE471E9}"/>
-    <cellStyle name="Warning Text 9" xfId="906" xr:uid="{748D53DD-BF12-41D6-9F3B-A12AB89B5870}"/>
-    <cellStyle name="Wrapped" xfId="918" xr:uid="{F9166697-9E0F-4945-A379-4FA522B05A53}"/>
+    <cellStyle name="Normal 5" xfId="755" xr:uid="{65840ED2-260C-4141-8240-1B99E963DDF4}"/>
+    <cellStyle name="Normal 5 2" xfId="756" xr:uid="{4FA2B148-544B-45FC-A61B-4EAC75C24C96}"/>
+    <cellStyle name="Normal 5 3" xfId="757" xr:uid="{5F7DA7A8-0842-49CD-83DB-1CDCF6F574A1}"/>
+    <cellStyle name="Normal 5 3 2" xfId="758" xr:uid="{F306E457-7EFE-489D-91B3-3E19B4C6175F}"/>
+    <cellStyle name="Normal 50" xfId="918" xr:uid="{1AFE5906-9FF8-4EFD-858E-6E6F63E91A8D}"/>
+    <cellStyle name="Normal 6" xfId="759" xr:uid="{DD168BE4-662B-4D4D-83E8-087A18E044F0}"/>
+    <cellStyle name="Normal 6 2" xfId="760" xr:uid="{46365341-E695-4F92-AD54-3BDC782049D5}"/>
+    <cellStyle name="Normal 6 2 2" xfId="761" xr:uid="{9EF86D43-BAC5-4CAF-AD06-DAF1C98A4296}"/>
+    <cellStyle name="Normal 6 3" xfId="762" xr:uid="{44DD65DC-2834-4D7F-9787-0A5B02F3E426}"/>
+    <cellStyle name="Normal 6 3 2" xfId="763" xr:uid="{CB548B4B-99E4-4D69-8B5C-461839A0CD09}"/>
+    <cellStyle name="Normal 6 3 3" xfId="764" xr:uid="{F3C70BCD-EEF2-426B-BE0C-6D65890877F9}"/>
+    <cellStyle name="Normal 6 4" xfId="765" xr:uid="{9B5D957B-52A1-43C3-9242-65128002B9CE}"/>
+    <cellStyle name="Normal 6 5" xfId="766" xr:uid="{A0FC14AF-EDB4-468F-8124-4BFD97DD6D44}"/>
+    <cellStyle name="Normal 7" xfId="767" xr:uid="{FC32689A-68ED-4570-985E-380DFE89EC10}"/>
+    <cellStyle name="Normal 7 2" xfId="768" xr:uid="{C62AC001-29B1-46B0-8CD1-C040BFED1B71}"/>
+    <cellStyle name="Normal 7 2 2" xfId="769" xr:uid="{B61DB48A-4ED4-420A-B3CA-285B91424676}"/>
+    <cellStyle name="Normal 7 2 3" xfId="770" xr:uid="{09F689CE-54A3-408C-8E8C-9987BEBF262D}"/>
+    <cellStyle name="Normal 7 3" xfId="771" xr:uid="{1D4CAD06-8E1B-4669-9641-377C4637A7F9}"/>
+    <cellStyle name="Normal 7 4" xfId="772" xr:uid="{C2FBE7EB-485E-4EC3-9AD8-AF8D37CC15D7}"/>
+    <cellStyle name="Normal 8" xfId="773" xr:uid="{57453019-C7C2-42BC-884D-76B0519A3BCE}"/>
+    <cellStyle name="Normal 8 2" xfId="774" xr:uid="{3AC39A68-D629-43ED-B883-E262D9DB415E}"/>
+    <cellStyle name="Normal 8 3" xfId="775" xr:uid="{511652E1-3B39-4FDD-B587-18CCC12A72CF}"/>
+    <cellStyle name="Normal 8 4" xfId="776" xr:uid="{08C6F707-113F-4323-8479-2697462BF5BA}"/>
+    <cellStyle name="Normal 9" xfId="777" xr:uid="{E14E5644-8961-47B4-B536-DD50E3F89FD7}"/>
+    <cellStyle name="Normal 9 2" xfId="778" xr:uid="{6C402464-AE51-4543-B59A-B87E6F5ECABC}"/>
+    <cellStyle name="Normal 9 3" xfId="779" xr:uid="{2F2AA647-6CF5-4085-9F00-D14C42498734}"/>
+    <cellStyle name="Normál_B17" xfId="780" xr:uid="{CE22F144-543B-4D1B-AF27-9108BBCD7B2C}"/>
+    <cellStyle name="Normal-droit" xfId="781" xr:uid="{68953714-3D7B-4F24-BD97-80D6E66E4B28}"/>
+    <cellStyle name="normální 2" xfId="782" xr:uid="{DE176A52-802F-4500-8A35-55DD3FAA9776}"/>
+    <cellStyle name="normální 2 2" xfId="783" xr:uid="{7B6C8D90-9C2C-4AE0-99BC-4E01124C86BA}"/>
+    <cellStyle name="normální_povolenikpopbytudlezemipuvodu942000" xfId="784" xr:uid="{2AE2DF68-BBB7-4F2B-8527-E4D5BA242376}"/>
+    <cellStyle name="Note 2" xfId="786" xr:uid="{FE04F360-D9B1-4673-8BD7-46FB55A0B0E0}"/>
+    <cellStyle name="Note 2 2" xfId="787" xr:uid="{4FE53D68-5CDF-40CA-8044-7992AE3F078F}"/>
+    <cellStyle name="Note 2 3" xfId="788" xr:uid="{15D89C68-D4AF-40B0-B951-CEF19EEBABC6}"/>
+    <cellStyle name="Note 2 4" xfId="789" xr:uid="{7DF0CC21-0AAE-45C8-9A1F-54A37A8744A5}"/>
+    <cellStyle name="Note 2_10-WRD_charts_v1" xfId="790" xr:uid="{A8D6144F-B5E7-4A5C-9020-E33E5195198D}"/>
+    <cellStyle name="Note 3" xfId="791" xr:uid="{144E8565-D36A-4D88-8F9A-BE229BD5913D}"/>
+    <cellStyle name="Note 3 2" xfId="792" xr:uid="{96E39D56-8E79-4C1C-9FA9-BDE2E1415CA7}"/>
+    <cellStyle name="Note 3 3" xfId="793" xr:uid="{25FD0311-5DC4-44AB-81C6-0A5BDC621ACB}"/>
+    <cellStyle name="Note 4" xfId="794" xr:uid="{8D0BCE7E-8399-41F5-8268-F04A8DDA70F2}"/>
+    <cellStyle name="Note 5" xfId="795" xr:uid="{EE0E896E-D181-4FC1-B404-B126D83D4F98}"/>
+    <cellStyle name="Note 6" xfId="796" xr:uid="{4F2DA2C2-448C-473F-9AD0-648CBD33346B}"/>
+    <cellStyle name="Note 7" xfId="797" xr:uid="{561CCA7F-3917-4051-99DA-080C38E33622}"/>
+    <cellStyle name="Note 8" xfId="798" xr:uid="{F6FF9E2B-7A09-4661-BF59-B3EABFC2B973}"/>
+    <cellStyle name="Note 9" xfId="785" xr:uid="{96D4C212-54AD-4820-88D2-8DFCCBC41AE6}"/>
+    <cellStyle name="notes" xfId="799" xr:uid="{EBE773EA-F256-4DFF-AF71-4B1F394CA468}"/>
+    <cellStyle name="Output 2" xfId="801" xr:uid="{00D30CD4-55D0-44F2-B207-D60D4090C67B}"/>
+    <cellStyle name="Output 2 2" xfId="802" xr:uid="{392FE068-5244-4743-836A-B5D653261758}"/>
+    <cellStyle name="Output 2 3" xfId="803" xr:uid="{C95751CC-FC72-43DC-B62C-66C0EE233CFC}"/>
+    <cellStyle name="Output 2 4" xfId="804" xr:uid="{4EA7E2EF-3536-437D-A11E-722DB928980B}"/>
+    <cellStyle name="Output 2_10-WRD_charts_v1" xfId="805" xr:uid="{8D30B44D-67CE-474F-83B4-6548B6AC4C7F}"/>
+    <cellStyle name="Output 3" xfId="806" xr:uid="{03480317-C90E-49E6-BEA6-3ED8C58C39C8}"/>
+    <cellStyle name="Output 3 2" xfId="807" xr:uid="{CA29E7E6-306F-4AF1-9A0A-2C52E2E0D2FF}"/>
+    <cellStyle name="Output 4" xfId="808" xr:uid="{3E6C0AE9-3E13-48BD-9E74-E54D761C75A3}"/>
+    <cellStyle name="Output 5" xfId="809" xr:uid="{C37656AF-B5B1-4CDC-BFD2-AB5A60FFAA8E}"/>
+    <cellStyle name="Output 6" xfId="810" xr:uid="{3D9CFB38-D09D-41D6-AA0A-9EDB28F31266}"/>
+    <cellStyle name="Output 7" xfId="811" xr:uid="{60DE8869-C213-4E79-88A3-DB16ADAFE7F4}"/>
+    <cellStyle name="Output 8" xfId="812" xr:uid="{D616C7DE-6C05-4404-8B9D-E63909BA6A47}"/>
+    <cellStyle name="Output 9" xfId="800" xr:uid="{11EB4CB2-E058-47D5-A637-2F1F0D2F0939}"/>
+    <cellStyle name="Pénznem [0]_demo" xfId="813" xr:uid="{DAB35F26-B25B-4DCA-A568-3CECD2D49B60}"/>
+    <cellStyle name="Pénznem_demo" xfId="814" xr:uid="{85EE2FEF-B829-4BC6-892D-B24E27C0CABA}"/>
+    <cellStyle name="Percent 10" xfId="816" xr:uid="{2A12A106-E87F-43AE-996C-3F8A060E72E5}"/>
+    <cellStyle name="Percent 10 2" xfId="817" xr:uid="{5055C3B6-D2A5-4D48-A519-BCC7FCE880B8}"/>
+    <cellStyle name="Percent 10 2 2" xfId="818" xr:uid="{75F61A42-5855-4730-9CEE-A8A6D6141D2E}"/>
+    <cellStyle name="Percent 10 2 3" xfId="819" xr:uid="{238E2E6A-A3D4-46F6-B170-1DE78123CEE8}"/>
+    <cellStyle name="Percent 10 3" xfId="820" xr:uid="{03852337-C83C-4332-993F-34DF21DD1C81}"/>
+    <cellStyle name="Percent 10 4" xfId="821" xr:uid="{2AB28CEA-B181-488F-A81A-F4C233C59680}"/>
+    <cellStyle name="Percent 11" xfId="822" xr:uid="{8381E743-BFE4-458B-8AA6-113CAB0B06AA}"/>
+    <cellStyle name="Percent 11 2" xfId="823" xr:uid="{68BB3007-BA60-4AFB-AC2D-52F3F8125359}"/>
+    <cellStyle name="Percent 11 3" xfId="824" xr:uid="{7D8E9A8C-24C8-4DAC-B1A3-9CD9369C01EB}"/>
+    <cellStyle name="Percent 12" xfId="825" xr:uid="{AC2CA3B1-E64F-446A-B259-08C6AC0B9D62}"/>
+    <cellStyle name="Percent 12 2" xfId="826" xr:uid="{CDD2D47D-F792-4C08-8500-7C59438095F5}"/>
+    <cellStyle name="Percent 12 3" xfId="827" xr:uid="{027012EA-0F06-4E38-A4E0-A73DE2A42231}"/>
+    <cellStyle name="Percent 13" xfId="828" xr:uid="{CC63AF9F-5BE4-4C26-8A65-6244EEDEFA3B}"/>
+    <cellStyle name="Percent 13 2" xfId="829" xr:uid="{42F2627D-17B6-4FA9-A8CF-D16475CBEF80}"/>
+    <cellStyle name="Percent 13 3" xfId="830" xr:uid="{834C9AA3-F6D1-4FFB-BDED-76A1F9AE1B91}"/>
+    <cellStyle name="Percent 14" xfId="831" xr:uid="{72E0C4CD-8D1E-4D2E-91A8-2A6276FF1AC7}"/>
+    <cellStyle name="Percent 14 2" xfId="832" xr:uid="{FB711B80-23A1-47F4-81E0-51A776FABCB2}"/>
+    <cellStyle name="Percent 14 3" xfId="833" xr:uid="{FA679980-7B2C-4CAA-8B83-97E0FE75D7E9}"/>
+    <cellStyle name="Percent 15" xfId="834" xr:uid="{ED597025-5708-4C13-829C-03F48C651CCE}"/>
+    <cellStyle name="Percent 15 2" xfId="835" xr:uid="{9B5F7F90-2F3D-42C8-99F1-6EDF9AF5DC6A}"/>
+    <cellStyle name="Percent 15 3" xfId="836" xr:uid="{4C1E6109-678F-4373-B146-31A59B48699A}"/>
+    <cellStyle name="Percent 16" xfId="837" xr:uid="{CB49EE6B-0FB2-4894-A38D-B6556B2CD6BD}"/>
+    <cellStyle name="Percent 16 2" xfId="838" xr:uid="{8619D90C-7BDD-4574-8700-E55B79F1FE39}"/>
+    <cellStyle name="Percent 16 3" xfId="839" xr:uid="{29106F0E-8537-4875-B842-24BFF394EBFF}"/>
+    <cellStyle name="Percent 16 4" xfId="840" xr:uid="{463C5A16-9310-4B85-B44C-4132D3F13FA1}"/>
+    <cellStyle name="Percent 17" xfId="841" xr:uid="{9C5D2790-7670-4EC2-8391-89B8F1968991}"/>
+    <cellStyle name="Percent 17 2" xfId="842" xr:uid="{E910EC94-A209-4BE9-B594-2B2A37DA8036}"/>
+    <cellStyle name="Percent 17 3" xfId="843" xr:uid="{F1490A7C-596E-437D-BF17-CF107108627E}"/>
+    <cellStyle name="Percent 18" xfId="844" xr:uid="{B33EF275-1833-462E-A020-B4285C404202}"/>
+    <cellStyle name="Percent 18 2" xfId="845" xr:uid="{D6873526-E505-470A-9DC3-4C5B516C84B5}"/>
+    <cellStyle name="Percent 18 3" xfId="846" xr:uid="{0B19C426-FF22-4C81-B9F9-29BAC97E8F8D}"/>
+    <cellStyle name="Percent 19" xfId="847" xr:uid="{C12DE4DA-9600-49F5-A904-0451D238415F}"/>
+    <cellStyle name="Percent 2" xfId="848" xr:uid="{AA239658-BC2D-4B46-9AEA-3550EDDFA3DC}"/>
+    <cellStyle name="Percent 2 2" xfId="849" xr:uid="{E23D2DFA-49EE-4B29-BED7-499754B06A8E}"/>
+    <cellStyle name="Percent 20" xfId="850" xr:uid="{B1B786CA-503E-45D9-B3F6-70A44782B104}"/>
+    <cellStyle name="Percent 21" xfId="815" xr:uid="{8A67947D-8598-4919-A771-B122139A1064}"/>
+    <cellStyle name="Percent 3" xfId="851" xr:uid="{AE233AA8-4BF2-45FE-872C-517FBF4C3A09}"/>
+    <cellStyle name="Percent 3 2" xfId="852" xr:uid="{B9945B3D-1BF1-44A9-B1C1-B274106EC5E8}"/>
+    <cellStyle name="Percent 4" xfId="853" xr:uid="{1765FC55-842F-4A53-9D3F-598CED0CFAB9}"/>
+    <cellStyle name="Percent 4 2" xfId="854" xr:uid="{8969C7AB-FFED-44E6-AE74-232D33942E3C}"/>
+    <cellStyle name="Percent 5" xfId="855" xr:uid="{F466CAB3-3254-4862-8C0F-E0915272F6B2}"/>
+    <cellStyle name="Percent 5 2" xfId="856" xr:uid="{BCA1031F-4B6F-48D8-9CCA-0CDD4547D008}"/>
+    <cellStyle name="Percent 5 2 2" xfId="857" xr:uid="{93ABCA8D-29EF-46BD-BAEA-6240A2CD1660}"/>
+    <cellStyle name="Percent 5 3" xfId="858" xr:uid="{C291AC49-B90D-4584-A94F-5E465876B182}"/>
+    <cellStyle name="Percent 5 3 2" xfId="859" xr:uid="{0178ADB9-3DB5-4660-8A0B-DD6126817498}"/>
+    <cellStyle name="Percent 5 3 3" xfId="860" xr:uid="{36296B0C-1066-42D3-BF93-0B22C5672D97}"/>
+    <cellStyle name="Percent 5 4" xfId="861" xr:uid="{357F46F8-4051-402D-8E16-F9CF5D67CBF0}"/>
+    <cellStyle name="Percent 5 5" xfId="862" xr:uid="{C77A0931-ECB1-4C72-8723-9610E30A1225}"/>
+    <cellStyle name="Percent 6" xfId="863" xr:uid="{35E239A4-461B-4AD8-B294-83DDC66F1611}"/>
+    <cellStyle name="Percent 6 2" xfId="864" xr:uid="{EEBC32C3-9290-46CE-9B8C-D0B61CE46E0F}"/>
+    <cellStyle name="Percent 6 3" xfId="865" xr:uid="{CE605705-E60B-4169-A5A0-050B339C940A}"/>
+    <cellStyle name="Percent 7" xfId="866" xr:uid="{D468594D-4DCD-4969-A44F-FC123936176F}"/>
+    <cellStyle name="Percent 7 2" xfId="867" xr:uid="{8EDFFC73-5C17-4478-BD60-7E508D9C75F0}"/>
+    <cellStyle name="Percent 7 3" xfId="868" xr:uid="{1171D094-D5B5-4532-8B2A-EED8FA92B638}"/>
+    <cellStyle name="Percent 8" xfId="869" xr:uid="{D65CF949-8AAD-47FE-B765-2472A26A69BC}"/>
+    <cellStyle name="Percent 8 2" xfId="870" xr:uid="{FB5432C9-B607-4AB2-B217-C5063A98B09C}"/>
+    <cellStyle name="Percent 9" xfId="871" xr:uid="{1FFF8C47-2B47-48FD-9BE8-202C5D35E591}"/>
+    <cellStyle name="Percent 9 2" xfId="872" xr:uid="{57D5CC4E-3BD6-417B-8727-D4377B5B9E03}"/>
+    <cellStyle name="Percent 9 3" xfId="873" xr:uid="{2914424B-E0AE-416E-8712-A200B1C9EC45}"/>
+    <cellStyle name="semestre" xfId="874" xr:uid="{59F37500-50D7-42C4-A876-64B8BECE528E}"/>
+    <cellStyle name="Standard_T12998" xfId="875" xr:uid="{666F9ED6-8D09-4D1D-8BE2-26E8D68C05C5}"/>
+    <cellStyle name="Style 27" xfId="876" xr:uid="{9EF0BE52-3199-4696-BFC5-C3A07D6AC330}"/>
+    <cellStyle name="Style 35" xfId="877" xr:uid="{AD164504-1BE3-4930-B5CF-E76FFD11D34F}"/>
+    <cellStyle name="Style 36" xfId="878" xr:uid="{FA4112FE-4FA2-42B0-ACFE-E7E09B61947B}"/>
+    <cellStyle name="tête chapitre" xfId="879" xr:uid="{21F06068-DE6D-4EF5-B68D-1E3BBD69B750}"/>
+    <cellStyle name="Title 2" xfId="881" xr:uid="{0BF14E06-1214-47D2-937F-C253C0C2A31C}"/>
+    <cellStyle name="Title 2 2" xfId="882" xr:uid="{69C06991-9520-41D7-BAA1-FC663598A3A9}"/>
+    <cellStyle name="Title 2 3" xfId="883" xr:uid="{4FB9724E-8498-4063-81E5-564F6674577B}"/>
+    <cellStyle name="Title 2 4" xfId="884" xr:uid="{12D96359-CFFA-4F3E-9257-6F0D01321282}"/>
+    <cellStyle name="Title 3" xfId="885" xr:uid="{128CAF68-358F-49AD-B757-AB53AFBB8222}"/>
+    <cellStyle name="Title 4" xfId="886" xr:uid="{9DD103C7-D8A9-4830-BEC4-9FE5C75591DC}"/>
+    <cellStyle name="Title 5" xfId="887" xr:uid="{5BCE2CFB-95D2-4201-966A-B18413F5BFDE}"/>
+    <cellStyle name="Title 6" xfId="888" xr:uid="{CF790690-A646-4A89-A811-9738E6707B36}"/>
+    <cellStyle name="Title 7" xfId="889" xr:uid="{4D3AFE34-D1F6-4147-9C2B-FFF6D99544E4}"/>
+    <cellStyle name="Title 8" xfId="890" xr:uid="{94A83D32-5E88-4138-A1F4-4251FFC898DC}"/>
+    <cellStyle name="Title 9" xfId="880" xr:uid="{76A5814E-B0C0-44D8-9FC3-E650D8C082F0}"/>
+    <cellStyle name="titre" xfId="891" xr:uid="{7B7C3954-364B-41C9-BF84-EAD6F67D34A5}"/>
+    <cellStyle name="Total 2" xfId="893" xr:uid="{29B2F26F-2D7B-4CE8-BB8B-B2888B547A35}"/>
+    <cellStyle name="Total 2 2" xfId="894" xr:uid="{C184D1CA-DB2E-43D9-8594-5842FAE5B0C7}"/>
+    <cellStyle name="Total 2 3" xfId="895" xr:uid="{E1619FDB-CA0A-4EDE-9C3D-E5FD07649302}"/>
+    <cellStyle name="Total 2 4" xfId="896" xr:uid="{E5589C5C-4A80-403E-9A58-21B95C248649}"/>
+    <cellStyle name="Total 2_10-WRD_charts_v1" xfId="897" xr:uid="{C3ACD9A8-A6DC-4993-AB04-A7F62F825A3E}"/>
+    <cellStyle name="Total 3" xfId="898" xr:uid="{36703F89-1747-4721-B5E8-8E0713E75ADA}"/>
+    <cellStyle name="Total 3 2" xfId="899" xr:uid="{3318F4BD-D6CA-4571-8371-19773DCE9295}"/>
+    <cellStyle name="Total 4" xfId="900" xr:uid="{D84334FD-4E40-4007-9D71-3F5099F145A8}"/>
+    <cellStyle name="Total 5" xfId="901" xr:uid="{E9132377-0D0F-4DEE-AF78-59D8FADB2276}"/>
+    <cellStyle name="Total 6" xfId="902" xr:uid="{8EA80481-388F-4F73-8FCA-804EBFC2A5A3}"/>
+    <cellStyle name="Total 7" xfId="903" xr:uid="{13843A44-77C5-4D19-866F-4C8256A98BC1}"/>
+    <cellStyle name="Total 8" xfId="904" xr:uid="{591D4F20-07B8-4E32-9B5B-6A3A8C6D79C2}"/>
+    <cellStyle name="Total 9" xfId="892" xr:uid="{6A623495-F069-4F62-A442-D3A774131617}"/>
+    <cellStyle name="Warning Text 2" xfId="906" xr:uid="{278F2F34-A021-4D51-BEE2-50145C65B31E}"/>
+    <cellStyle name="Warning Text 2 2" xfId="907" xr:uid="{491CBB80-F16A-48CF-8B40-341B749A97E2}"/>
+    <cellStyle name="Warning Text 2 3" xfId="908" xr:uid="{EAE3EC28-3E15-4A79-A843-7DB3F90302EB}"/>
+    <cellStyle name="Warning Text 2 4" xfId="909" xr:uid="{610E83D3-3DD1-4767-B680-1B571B01AF5B}"/>
+    <cellStyle name="Warning Text 3" xfId="910" xr:uid="{51CBDE76-39F1-4380-B138-B59E19960DA5}"/>
+    <cellStyle name="Warning Text 3 2" xfId="911" xr:uid="{467B4056-CD8A-4AF3-BC1E-9B1553D69FDE}"/>
+    <cellStyle name="Warning Text 4" xfId="912" xr:uid="{7E237B8D-D607-4DA0-8E7A-2EC2A9CBA587}"/>
+    <cellStyle name="Warning Text 5" xfId="913" xr:uid="{45F5CE03-0495-491F-8FD0-BE28B934923A}"/>
+    <cellStyle name="Warning Text 6" xfId="914" xr:uid="{F4FA324C-5DC6-40B7-92ED-7572C0171387}"/>
+    <cellStyle name="Warning Text 7" xfId="915" xr:uid="{1F1D1E7D-D14A-4A95-AC6F-668D371F5B1F}"/>
+    <cellStyle name="Warning Text 8" xfId="916" xr:uid="{2CA080C3-7400-4343-8AC9-4C8A7AE471E9}"/>
+    <cellStyle name="Warning Text 9" xfId="905" xr:uid="{748D53DD-BF12-41D6-9F3B-A12AB89B5870}"/>
+    <cellStyle name="Wrapped" xfId="917" xr:uid="{F9166697-9E0F-4945-A379-4FA522B05A53}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4493,7 +4493,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4792,19 +4792,19 @@
   <dimension ref="A1:AP225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A226" sqref="A226"/>
+      <selection pane="bottomRight" activeCell="A219" sqref="A219:AB219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="42" max="42" width="15.140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="42" max="42" width="15.1640625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="72.75" customHeight="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>216</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>4.6309511294174701</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>9.438926111713581</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>1.0371510756391038</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>1.7254439946682398E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>1.4636261255924172</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>0.11622488222466684</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>11.367100251591786</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>1.1658847002626807</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>0.12551418852116797</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>0.68156074669144429</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>2.2837847997642919</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>5.7795473747102832</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>2.0874386257467719</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>2.2684473343476319</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>2.4503267029437272</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>4.9708025051112656</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>1.4268968067065535</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>1.6598945779631475</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>3.157243841984859</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>10.900602689107727</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>0.26804215063135367</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>0.17835802674058754</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>3.4963946483441504</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42">
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>3.2628956544918792</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>1.3526065491183878</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>11.715218190760059</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>5.8925425980097268</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>0.86341503416856491</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>7.8552315706499565E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>2.2344788732145723E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>0.48371772739539592</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>2.0690732392625693</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>11.466443875102641</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42">
       <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>3.7202639833448994</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0.90840293237410064</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42">
       <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>0.76064622797092651</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>6.6251243398568995</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42">
       <c r="A50" s="6" t="s">
         <v>49</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42">
       <c r="A51" s="6" t="s">
         <v>50</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42">
       <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>2.3822778223723229</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42">
       <c r="A53" s="6" t="s">
         <v>52</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>1.5450286796272974</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42">
       <c r="A54" s="6" t="s">
         <v>53</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>0.38708552240938321</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42">
       <c r="A55" s="6" t="s">
         <v>54</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>1.8625762476310801</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>8.2932007588532883</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>8.0879353965867562</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>2.9908086818929891</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42">
       <c r="A59" s="6" t="s">
         <v>58</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>8.8638390090519295</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42">
       <c r="A60" s="6" t="s">
         <v>59</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>21.014375587838192</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42">
       <c r="A61" s="6" t="s">
         <v>60</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42">
       <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42">
       <c r="A63" s="6" t="s">
         <v>62</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>1.8525456382498868</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42">
       <c r="A64" s="23" t="s">
         <v>63</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>2.6987420227614343</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42">
       <c r="A65" s="6" t="s">
         <v>64</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>0.58250243512825328</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42">
       <c r="A66" s="6" t="s">
         <v>65</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42">
       <c r="A67" s="6" t="s">
         <v>66</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>5.0428652398362122</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>0.33142277536695169</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>0.95076824645355085</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42">
       <c r="A70" s="6" t="s">
         <v>69</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42">
       <c r="A71" s="6" t="s">
         <v>70</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>0.10936802897434376</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42">
       <c r="A72" s="6" t="s">
         <v>71</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>15.537389050535779</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42">
       <c r="A73" s="6" t="s">
         <v>72</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>14.179342218649923</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>0.44107311081164396</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42">
       <c r="A75" s="6" t="s">
         <v>74</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>5.2485377461723086</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42">
       <c r="A76" s="6" t="s">
         <v>75</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>0.25421763163934735</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42">
       <c r="A77" s="6" t="s">
         <v>76</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42">
       <c r="A78" s="6" t="s">
         <v>77</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>3.9140499293214863</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42">
       <c r="A79" s="6" t="s">
         <v>78</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>13.061068890036646</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="A81" s="6" t="s">
         <v>80</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>0.21267205266307601</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>9.3766026353614897</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>8.097373161853918</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42">
       <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>37.127059985939447</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="A85" s="6" t="s">
         <v>84</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>21.959333298997915</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:42">
       <c r="A86" s="6" t="s">
         <v>85</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>0.11993979333936391</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>2.5545290183619218</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:42">
       <c r="A88" s="6" t="s">
         <v>87</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>0.64185255417677067</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="A89" s="6" t="s">
         <v>88</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>2.831852076428087</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42">
       <c r="A90" s="6" t="s">
         <v>89</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>1.0494615067018198</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42">
       <c r="A91" s="6" t="s">
         <v>90</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>0.29007633587786258</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="A92" s="6" t="s">
         <v>91</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>0.33137455565595325</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42">
       <c r="A93" s="6" t="s">
         <v>92</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>0.15099035698862159</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="A94" s="6" t="s">
         <v>93</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="A95" s="6" t="s">
         <v>94</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>1.5606744094274947</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="A96" s="6" t="s">
         <v>95</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>0.52102183786142375</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:42">
       <c r="A97" s="6" t="s">
         <v>96</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>16.393846919067638</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:42">
       <c r="A98" s="6" t="s">
         <v>97</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>8.4981207718678731E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:42">
       <c r="A99" s="6" t="s">
         <v>98</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>10.210930299230279</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:42">
       <c r="A100" s="6" t="s">
         <v>99</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>0.29717966478400237</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:42">
       <c r="A101" s="6" t="s">
         <v>100</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>2.85915397612977</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:42">
       <c r="A102" s="6" t="s">
         <v>101</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>10.857688043478261</v>
       </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:42">
       <c r="A103" s="6" t="s">
         <v>102</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:42">
       <c r="A104" s="6" t="s">
         <v>103</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>0.45251642810751319</v>
       </c>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:42">
       <c r="A105" s="6" t="s">
         <v>104</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>15.624323953176585</v>
       </c>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:42">
       <c r="A106" s="6" t="s">
         <v>105</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>2.0144041398056558E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:42">
       <c r="A107" s="6" t="s">
         <v>106</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>29.17251610549134</v>
       </c>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:42">
       <c r="A108" s="6" t="s">
         <v>107</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>1.4880587934105074</v>
       </c>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:42">
       <c r="A109" s="6" t="s">
         <v>108</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>3.4885673434950046</v>
       </c>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:42">
       <c r="A110" s="6" t="s">
         <v>109</v>
       </c>
@@ -15926,7 +15926,7 @@
         <v>12.749279062855488</v>
       </c>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:42">
       <c r="A111" s="6" t="s">
         <v>110</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>21.308421272236412</v>
       </c>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:42">
       <c r="A112" s="6" t="s">
         <v>111</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>9.3502963884070116</v>
       </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:42">
       <c r="A113" s="6" t="s">
         <v>112</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:42">
       <c r="A114" s="6" t="s">
         <v>113</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:42">
       <c r="A115" s="6" t="s">
         <v>114</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>2.4305284459275551</v>
       </c>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:42">
       <c r="A116" s="6" t="s">
         <v>115</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>2.8814664778771255</v>
       </c>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:42">
       <c r="A117" s="6" t="s">
         <v>116</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>4.1354479831688919E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:42">
       <c r="A118" s="6" t="s">
         <v>117</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>3.4504886594765227</v>
       </c>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:42">
       <c r="A119" s="6" t="s">
         <v>118</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>2.4141318449215636</v>
       </c>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:42">
       <c r="A120" s="6" t="s">
         <v>119</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>0.45404857648582136</v>
       </c>
     </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:42">
       <c r="A121" s="6" t="s">
         <v>120</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>7.2897312478396134E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:42">
       <c r="A122" s="6" t="s">
         <v>121</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>5.8612747960786544</v>
       </c>
     </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:42">
       <c r="A123" s="6" t="s">
         <v>122</v>
       </c>
@@ -17246,7 +17246,7 @@
         <v>1.7696043515848976</v>
       </c>
     </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:42">
       <c r="A124" s="6" t="s">
         <v>123</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>14.295478636363637</v>
       </c>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:42">
       <c r="A125" s="6" t="s">
         <v>124</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>1.0686932578304724</v>
       </c>
     </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:42">
       <c r="A126" s="6" t="s">
         <v>125</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>1.2422764227642278</v>
       </c>
     </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:42">
       <c r="A127" s="6" t="s">
         <v>126</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>3.0231565734334596</v>
       </c>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:42">
       <c r="A128" s="6" t="s">
         <v>127</v>
       </c>
@@ -17714,7 +17714,7 @@
         <v>6.1256430446194221</v>
       </c>
     </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:42">
       <c r="A129" s="6" t="s">
         <v>128</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>16.335448436413415</v>
       </c>
     </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:42">
       <c r="A130" s="6" t="s">
         <v>129</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:42">
       <c r="A131" s="6" t="s">
         <v>130</v>
       </c>
@@ -17952,7 +17952,7 @@
         <v>4.2164698980714235</v>
       </c>
     </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:42">
       <c r="A132" s="6" t="s">
         <v>131</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>25.373854100884959</v>
       </c>
     </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:42">
       <c r="A133" s="6" t="s">
         <v>132</v>
       </c>
@@ -18154,7 +18154,7 @@
         <v>5.602124071484111</v>
       </c>
     </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:42">
       <c r="A134" s="6" t="s">
         <v>133</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>1.6301221066189624</v>
       </c>
     </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:42">
       <c r="A135" s="6" t="s">
         <v>134</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>4.3041179258720499</v>
       </c>
     </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:42">
       <c r="A136" s="6" t="s">
         <v>135</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>0.3713055495003591</v>
       </c>
     </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:42">
       <c r="A137" s="6" t="s">
         <v>136</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>27.263155181967598</v>
       </c>
     </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:42">
       <c r="A138" s="6" t="s">
         <v>137</v>
       </c>
@@ -18734,7 +18734,7 @@
         <v>0.26070698788658569</v>
       </c>
     </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:42">
       <c r="A139" s="6" t="s">
         <v>138</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:42">
       <c r="A140" s="6" t="s">
         <v>139</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>0.28597933786625834</v>
       </c>
     </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:42">
       <c r="A141" s="6" t="s">
         <v>140</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>13.200632183908045</v>
       </c>
     </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:42">
       <c r="A142" s="6" t="s">
         <v>141</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>3.3931141035687817</v>
       </c>
     </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:42">
       <c r="A143" s="6" t="s">
         <v>142</v>
       </c>
@@ -19306,7 +19306,7 @@
         <v>5.3299436251523371</v>
       </c>
     </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:42">
       <c r="A144" s="23" t="s">
         <v>143</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>2.5034924348484844</v>
       </c>
     </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:42">
       <c r="A145" s="6" t="s">
         <v>144</v>
       </c>
@@ -19450,7 +19450,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:42">
       <c r="A146" s="6" t="s">
         <v>145</v>
       </c>
@@ -19578,7 +19578,7 @@
         <v>0.14703618793995599</v>
       </c>
     </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:42">
       <c r="A147" s="6" t="s">
         <v>146</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>5.0923134357582008E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:42">
       <c r="A148" s="6" t="s">
         <v>147</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>7.9190205199180896</v>
       </c>
     </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:42">
       <c r="A149" s="6" t="s">
         <v>148</v>
       </c>
@@ -19912,7 +19912,7 @@
         <v>0.74785826890034368</v>
       </c>
     </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:42">
       <c r="A150" s="6" t="s">
         <v>149</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>0.8475944886191199</v>
       </c>
     </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:42">
       <c r="A151" s="6" t="s">
         <v>150</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>1.0634418045273177E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:42">
       <c r="A152" s="6" t="s">
         <v>151</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>1.6406839610136357</v>
       </c>
     </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:42">
       <c r="A153" s="6" t="s">
         <v>152</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>1.4524715160990265</v>
       </c>
     </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:42">
       <c r="A154" s="6" t="s">
         <v>153</v>
       </c>
@@ -20532,7 +20532,7 @@
         <v>9.8558352531010556</v>
       </c>
     </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:42">
       <c r="A155" s="6" t="s">
         <v>154</v>
       </c>
@@ -20632,7 +20632,7 @@
         <v>1.0658183913164878</v>
       </c>
     </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:42">
       <c r="A156" s="6" t="s">
         <v>155</v>
       </c>
@@ -20760,7 +20760,7 @@
         <v>1.8302752318844973</v>
       </c>
     </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:42">
       <c r="A157" s="6" t="s">
         <v>156</v>
       </c>
@@ -20808,7 +20808,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:42">
       <c r="A158" s="6" t="s">
         <v>157</v>
       </c>
@@ -20874,7 +20874,7 @@
         <v>0.26350545974630363</v>
       </c>
     </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:42">
       <c r="A159" s="6" t="s">
         <v>158</v>
       </c>
@@ -20974,7 +20974,7 @@
         <v>2.9690065894410296</v>
       </c>
     </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:42">
       <c r="A160" s="6" t="s">
         <v>159</v>
       </c>
@@ -21074,7 +21074,7 @@
         <v>0.64449411309463633</v>
       </c>
     </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:42">
       <c r="A161" s="6" t="s">
         <v>160</v>
       </c>
@@ -21186,7 +21186,7 @@
         <v>2.5519423939661086</v>
       </c>
     </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:42">
       <c r="A162" s="6" t="s">
         <v>161</v>
       </c>
@@ -21306,7 +21306,7 @@
         <v>16.218122942983424</v>
       </c>
     </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:42">
       <c r="A163" s="6" t="s">
         <v>162</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:42">
       <c r="A164" s="6" t="s">
         <v>163</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>2.3646386883720929</v>
       </c>
     </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:42">
       <c r="A165" s="6" t="s">
         <v>164</v>
       </c>
@@ -21548,7 +21548,7 @@
         <v>4.3752700476236819E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:42">
       <c r="A166" s="6" t="s">
         <v>165</v>
       </c>
@@ -21676,7 +21676,7 @@
         <v>10.535529093065998</v>
       </c>
     </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:42">
       <c r="A167" s="6" t="s">
         <v>166</v>
       </c>
@@ -21750,7 +21750,7 @@
         <v>8.0798915558879045</v>
       </c>
     </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:42">
       <c r="A168" s="6" t="s">
         <v>167</v>
       </c>
@@ -21860,7 +21860,7 @@
         <v>1.3816115875912409</v>
       </c>
     </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:42">
       <c r="A169" s="6" t="s">
         <v>168</v>
       </c>
@@ -21984,7 +21984,7 @@
         <v>1.4680982206195319</v>
       </c>
     </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:42">
       <c r="A170" s="6" t="s">
         <v>169</v>
       </c>
@@ -22032,7 +22032,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:42">
       <c r="A171" s="6" t="s">
         <v>170</v>
       </c>
@@ -22098,7 +22098,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:42">
       <c r="A172" s="6" t="s">
         <v>171</v>
       </c>
@@ -22198,7 +22198,7 @@
         <v>1.8461806745242595</v>
       </c>
     </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:42">
       <c r="A173" s="6" t="s">
         <v>172</v>
       </c>
@@ -22302,7 +22302,7 @@
         <v>1.0218948797872733</v>
       </c>
     </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:42">
       <c r="A174" s="6" t="s">
         <v>173</v>
       </c>
@@ -22392,7 +22392,7 @@
         <v>1.3424430902777778</v>
       </c>
     </row>
-    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:42">
       <c r="A175" s="6" t="s">
         <v>174</v>
       </c>
@@ -22440,7 +22440,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:42">
       <c r="A176" s="6" t="s">
         <v>175</v>
       </c>
@@ -22568,7 +22568,7 @@
         <v>0.24336841549552862</v>
       </c>
     </row>
-    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:42">
       <c r="A177" s="6" t="s">
         <v>176</v>
       </c>
@@ -22628,7 +22628,7 @@
         <v>34.424341211627279</v>
       </c>
     </row>
-    <row r="178" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:42">
       <c r="A178" s="6" t="s">
         <v>177</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>0.71358976838761834</v>
       </c>
     </row>
-    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:42">
       <c r="A179" s="6" t="s">
         <v>178</v>
       </c>
@@ -22884,7 +22884,7 @@
         <v>7.7943207928470759</v>
       </c>
     </row>
-    <row r="180" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:42">
       <c r="A180" s="6" t="s">
         <v>179</v>
       </c>
@@ -23012,7 +23012,7 @@
         <v>2.5055552325581396</v>
       </c>
     </row>
-    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:42">
       <c r="A181" s="6" t="s">
         <v>180</v>
       </c>
@@ -23130,7 +23130,7 @@
         <v>2.1578072351907629</v>
       </c>
     </row>
-    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:42">
       <c r="A182" s="6" t="s">
         <v>181</v>
       </c>
@@ -23178,7 +23178,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="183" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:42">
       <c r="A183" s="6" t="s">
         <v>182</v>
       </c>
@@ -23294,7 +23294,7 @@
         <v>5.4638938522196261</v>
       </c>
     </row>
-    <row r="184" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:42">
       <c r="A184" s="6" t="s">
         <v>183</v>
       </c>
@@ -23422,7 +23422,7 @@
         <v>1.3773016422116413</v>
       </c>
     </row>
-    <row r="185" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:42">
       <c r="A185" s="6" t="s">
         <v>184</v>
       </c>
@@ -23542,7 +23542,7 @@
         <v>7.4919100307025751E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:42">
       <c r="A186" s="6" t="s">
         <v>185</v>
       </c>
@@ -23670,7 +23670,7 @@
         <v>0.61614307822184078</v>
       </c>
     </row>
-    <row r="187" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:42">
       <c r="A187" s="6" t="s">
         <v>186</v>
       </c>
@@ -23798,7 +23798,7 @@
         <v>0.35041713520912554</v>
       </c>
     </row>
-    <row r="188" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:42">
       <c r="A188" s="6" t="s">
         <v>187</v>
       </c>
@@ -23926,7 +23926,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="189" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:42">
       <c r="A189" s="6" t="s">
         <v>188</v>
       </c>
@@ -24010,7 +24010,7 @@
         <v>28.190340224743526</v>
       </c>
     </row>
-    <row r="190" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:42">
       <c r="A190" s="6" t="s">
         <v>189</v>
       </c>
@@ -24108,7 +24108,7 @@
         <v>0.69876958004606371</v>
       </c>
     </row>
-    <row r="191" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:42">
       <c r="A191" s="6" t="s">
         <v>190</v>
       </c>
@@ -24236,7 +24236,7 @@
         <v>1.3370273105596047</v>
       </c>
     </row>
-    <row r="192" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:42">
       <c r="A192" s="6" t="s">
         <v>191</v>
       </c>
@@ -24312,7 +24312,7 @@
         <v>3.3339546355858229</v>
       </c>
     </row>
-    <row r="193" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:42">
       <c r="A193" s="6" t="s">
         <v>192</v>
       </c>
@@ -24440,7 +24440,7 @@
         <v>8.3329399243184294</v>
       </c>
     </row>
-    <row r="194" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:42">
       <c r="A194" s="6" t="s">
         <v>193</v>
       </c>
@@ -24550,7 +24550,7 @@
         <v>37.560072950819674</v>
       </c>
     </row>
-    <row r="195" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:42">
       <c r="A195" s="6" t="s">
         <v>194</v>
       </c>
@@ -24678,7 +24678,7 @@
         <v>0.61356362188702607</v>
       </c>
     </row>
-    <row r="196" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:42">
       <c r="A196" s="6" t="s">
         <v>195</v>
       </c>
@@ -24806,7 +24806,7 @@
         <v>4.9114091087472893</v>
       </c>
     </row>
-    <row r="197" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:42">
       <c r="A197" s="6" t="s">
         <v>196</v>
       </c>
@@ -24934,7 +24934,7 @@
         <v>0.10889072055161435</v>
       </c>
     </row>
-    <row r="198" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:42">
       <c r="A198" s="6" t="s">
         <v>197</v>
       </c>
@@ -25012,7 +25012,7 @@
         <v>2.1425204610704034E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:42">
       <c r="A199" s="6" t="s">
         <v>198</v>
       </c>
@@ -25072,7 +25072,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="200" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:42">
       <c r="A200" s="6" t="s">
         <v>199</v>
       </c>
@@ -25150,7 +25150,7 @@
         <v>9.6593048688095227</v>
       </c>
     </row>
-    <row r="201" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:42">
       <c r="A201" s="6" t="s">
         <v>200</v>
       </c>
@@ -25240,7 +25240,7 @@
         <v>4.2169372044266238</v>
       </c>
     </row>
-    <row r="202" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:42">
       <c r="A202" s="6" t="s">
         <v>201</v>
       </c>
@@ -25336,7 +25336,7 @@
         <v>10.514651794406241</v>
       </c>
     </row>
-    <row r="203" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:42">
       <c r="A203" s="6" t="s">
         <v>202</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="204" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:42">
       <c r="A204" s="6" t="s">
         <v>203</v>
       </c>
@@ -25498,7 +25498,7 @@
         <v>0.14115520758129277</v>
       </c>
     </row>
-    <row r="205" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:42">
       <c r="A205" s="6" t="s">
         <v>204</v>
       </c>
@@ -25626,7 +25626,7 @@
         <v>3.2096790268818891E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:42">
       <c r="A206" s="6" t="s">
         <v>205</v>
       </c>
@@ -25712,7 +25712,7 @@
         <v>0.16879884375312929</v>
       </c>
     </row>
-    <row r="207" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:42">
       <c r="A207" s="6" t="s">
         <v>206</v>
       </c>
@@ -25788,7 +25788,7 @@
         <v>6.8606381220036372</v>
       </c>
     </row>
-    <row r="208" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:42">
       <c r="A208" s="6" t="s">
         <v>207</v>
       </c>
@@ -25912,7 +25912,7 @@
         <v>3.703328023133543</v>
       </c>
     </row>
-    <row r="209" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:42">
       <c r="A209" s="6" t="s">
         <v>208</v>
       </c>
@@ -26022,7 +26022,7 @@
         <v>0.39777587681779297</v>
       </c>
     </row>
-    <row r="210" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:42">
       <c r="A210" s="6" t="s">
         <v>209</v>
       </c>
@@ -26110,7 +26110,7 @@
         <v>6.4975519517499443</v>
       </c>
     </row>
-    <row r="211" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:42">
       <c r="A211" s="6" t="s">
         <v>210</v>
       </c>
@@ -26158,7 +26158,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="212" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:42">
       <c r="A212" s="6" t="s">
         <v>211</v>
       </c>
@@ -26256,7 +26256,7 @@
         <v>16.304824697486982</v>
       </c>
     </row>
-    <row r="213" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:42">
       <c r="A213" s="6" t="s">
         <v>212</v>
       </c>
@@ -26364,7 +26364,7 @@
         <v>12.62965688829342</v>
       </c>
     </row>
-    <row r="214" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:42">
       <c r="A214" s="6" t="s">
         <v>213</v>
       </c>
@@ -26446,7 +26446,7 @@
         <v>0.53594628106473974</v>
       </c>
     </row>
-    <row r="215" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:42" ht="16" thickBot="1">
       <c r="A215" s="24" t="s">
         <v>214</v>
       </c>
@@ -26546,7 +26546,7 @@
         <v>13.495739116866906</v>
       </c>
     </row>
-    <row r="216" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:42">
       <c r="A216" s="8" t="s">
         <v>218</v>
       </c>
@@ -26672,7 +26672,7 @@
       </c>
       <c r="AP216" s="29"/>
     </row>
-    <row r="217" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:42">
       <c r="A217" s="9" t="s">
         <v>215</v>
       </c>
@@ -26798,7 +26798,7 @@
       </c>
       <c r="AP217" s="29"/>
     </row>
-    <row r="218" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:42">
       <c r="A218" s="11"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -26842,7 +26842,7 @@
       <c r="AO218" s="13"/>
       <c r="AP218" s="29"/>
     </row>
-    <row r="219" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:42">
       <c r="A219" s="31" t="s">
         <v>219</v>
       </c>
@@ -26888,7 +26888,7 @@
       <c r="AO219" s="14"/>
       <c r="AP219" s="28"/>
     </row>
-    <row r="220" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:42">
       <c r="A220" s="15" t="s">
         <v>220</v>
       </c>
@@ -26934,7 +26934,7 @@
       <c r="AO220" s="1"/>
       <c r="AP220" s="28"/>
     </row>
-    <row r="221" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:42">
       <c r="A221" s="16" t="s">
         <v>221</v>
       </c>
@@ -26980,7 +26980,7 @@
       <c r="AO221" s="1"/>
       <c r="AP221" s="28"/>
     </row>
-    <row r="222" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:42">
       <c r="A222" s="18" t="s">
         <v>222</v>
       </c>
@@ -27026,7 +27026,7 @@
       <c r="AO222" s="1"/>
       <c r="AP222" s="28"/>
     </row>
-    <row r="223" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:42">
       <c r="A223" s="19" t="s">
         <v>223</v>
       </c>
@@ -27072,7 +27072,7 @@
       <c r="AO223" s="1"/>
       <c r="AP223" s="28"/>
     </row>
-    <row r="224" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:42">
       <c r="A224" s="15" t="s">
         <v>224</v>
       </c>
@@ -27118,7 +27118,7 @@
       <c r="AO224" s="1"/>
       <c r="AP224" s="28"/>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28">
       <c r="A225" s="15" t="s">
         <v>226</v>
       </c>
